--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$V$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$W$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -595,16 +595,19 @@
     <t>Information and publishing</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23579,17 +23582,17 @@
   </sheetPr>
   <dimension ref="A1:CR132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A81" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="A81" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="11"/>
+    <col min="2" max="23" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23604,7 +23607,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -23615,7 +23618,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23643,6 +23646,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -23666,6 +23670,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -23692,6 +23697,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -23759,6 +23765,9 @@
       </c>
       <c r="V10" s="7">
         <v>2020</v>
+      </c>
+      <c r="W10" s="7">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23831,7 +23840,9 @@
       <c r="V12" s="9">
         <v>46241.85138730106</v>
       </c>
-      <c r="W12" s="10"/>
+      <c r="W12" s="9">
+        <v>51243.552308117476</v>
+      </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -23973,7 +23984,9 @@
       <c r="V13" s="13">
         <v>546576.63266276009</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="13">
+        <v>587509.28474324732</v>
+      </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -24071,7 +24084,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
-      <c r="W14" s="10"/>
+      <c r="W14" s="15"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -24213,7 +24226,9 @@
       <c r="V15" s="16">
         <v>592818.4840500612</v>
       </c>
-      <c r="W15" s="10"/>
+      <c r="W15" s="16">
+        <v>638752.83705136483</v>
+      </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -24311,6 +24326,7 @@
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
@@ -24525,7 +24541,7 @@
     </row>
     <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -24536,7 +24552,7 @@
     </row>
     <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -24564,6 +24580,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -24587,6 +24604,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -24613,6 +24631,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -24680,6 +24699,9 @@
       </c>
       <c r="V29" s="19">
         <v>2020</v>
+      </c>
+      <c r="W29" s="19">
+        <v>2021</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24752,7 +24774,9 @@
       <c r="V31" s="9">
         <v>45611.001823416416</v>
       </c>
-      <c r="W31" s="10"/>
+      <c r="W31" s="9">
+        <v>49939.06196006565</v>
+      </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
@@ -24894,7 +24918,9 @@
       <c r="V32" s="13">
         <v>539369.59532503365</v>
       </c>
-      <c r="W32" s="10"/>
+      <c r="W32" s="13">
+        <v>588002.38222474616</v>
+      </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
@@ -25134,7 +25160,9 @@
       <c r="V34" s="16">
         <v>584980.59714845009</v>
       </c>
-      <c r="W34" s="10"/>
+      <c r="W34" s="16">
+        <v>637941.44418481179</v>
+      </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
@@ -25232,6 +25260,7 @@
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
     </row>
     <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
@@ -25446,7 +25475,7 @@
     </row>
     <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25457,7 +25486,7 @@
     </row>
     <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25490,6 +25519,8 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
     </row>
     <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -25553,8 +25584,12 @@
         <v>13</v>
       </c>
       <c r="U48" s="21" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="V48" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W48" s="21"/>
     </row>
     <row r="49" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -25623,8 +25658,10 @@
       <c r="U50" s="22">
         <v>-11.608536523155593</v>
       </c>
-      <c r="V50" s="1"/>
-      <c r="W50" s="10"/>
+      <c r="V50" s="22">
+        <v>10.816394177050583</v>
+      </c>
+      <c r="W50" s="22"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
@@ -25758,8 +25795,10 @@
       <c r="U51" s="22">
         <v>7.0629675474923772</v>
       </c>
-      <c r="V51" s="1"/>
-      <c r="W51" s="10"/>
+      <c r="V51" s="22">
+        <v>7.488913655359795</v>
+      </c>
+      <c r="W51" s="22"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
@@ -25851,8 +25890,8 @@
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
       <c r="U52" s="23"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="10"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
@@ -25986,8 +26025,10 @@
       <c r="U53" s="22">
         <v>5.3274695892189925</v>
       </c>
-      <c r="V53" s="1"/>
-      <c r="W53" s="10"/>
+      <c r="V53" s="22">
+        <v>7.7484684160800583</v>
+      </c>
+      <c r="W53" s="22"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
@@ -26079,6 +26120,8 @@
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
     </row>
     <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
@@ -26107,7 +26150,7 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="1"/>
+      <c r="V56" s="10"/>
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
@@ -26200,7 +26243,7 @@
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
-      <c r="V57" s="1"/>
+      <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
@@ -26283,7 +26326,7 @@
     </row>
     <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -26294,7 +26337,7 @@
     </row>
     <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -26327,6 +26370,8 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
     </row>
     <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
@@ -26390,8 +26435,12 @@
         <v>13</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="V67" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" s="7"/>
     </row>
     <row r="68" spans="1:92" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -26460,8 +26509,10 @@
       <c r="U69" s="22">
         <v>-13.523570273316949</v>
       </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="10"/>
+      <c r="V69" s="22">
+        <v>9.4890705391768648</v>
+      </c>
+      <c r="W69" s="22"/>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
@@ -26595,8 +26646,10 @@
       <c r="U70" s="22">
         <v>6.9619002332873379</v>
       </c>
-      <c r="V70" s="1"/>
-      <c r="W70" s="10"/>
+      <c r="V70" s="22">
+        <v>9.0165977691800663</v>
+      </c>
+      <c r="W70" s="22"/>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
@@ -26688,8 +26741,8 @@
       <c r="S71" s="23"/>
       <c r="T71" s="23"/>
       <c r="U71" s="23"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="10"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
@@ -26823,8 +26876,10 @@
       <c r="U72" s="22">
         <v>5.0220998552319855</v>
       </c>
-      <c r="V72" s="1"/>
-      <c r="W72" s="10"/>
+      <c r="V72" s="22">
+        <v>9.0534365232838354</v>
+      </c>
+      <c r="W72" s="22"/>
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
@@ -26916,6 +26971,8 @@
       <c r="S73" s="17"/>
       <c r="T73" s="17"/>
       <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
     </row>
     <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
@@ -27116,7 +27173,7 @@
     </row>
     <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -27127,7 +27184,7 @@
     </row>
     <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -27161,6 +27218,7 @@
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
     </row>
     <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
@@ -27228,6 +27286,9 @@
       </c>
       <c r="V85" s="19">
         <v>2020</v>
+      </c>
+      <c r="W85" s="19">
+        <v>2021</v>
       </c>
     </row>
     <row r="86" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27300,7 +27361,9 @@
       <c r="V87" s="22">
         <v>101.38310832620381</v>
       </c>
-      <c r="W87" s="10"/>
+      <c r="W87" s="22">
+        <v>102.61216429955167</v>
+      </c>
       <c r="X87" s="10"/>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
@@ -27442,7 +27505,9 @@
       <c r="V88" s="22">
         <v>101.33619644121457</v>
       </c>
-      <c r="W88" s="10"/>
+      <c r="W88" s="22">
+        <v>99.916140223848544</v>
+      </c>
       <c r="X88" s="10"/>
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
@@ -27540,7 +27605,7 @@
       <c r="T89" s="23"/>
       <c r="U89" s="23"/>
       <c r="V89" s="23"/>
-      <c r="W89" s="10"/>
+      <c r="W89" s="23"/>
       <c r="X89" s="10"/>
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
@@ -27682,7 +27747,9 @@
       <c r="V90" s="22">
         <v>101.33985416607281</v>
       </c>
-      <c r="W90" s="10"/>
+      <c r="W90" s="22">
+        <v>100.1271892387537</v>
+      </c>
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
@@ -27780,6 +27847,7 @@
       <c r="T91" s="17"/>
       <c r="U91" s="17"/>
       <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
     </row>
     <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
@@ -27798,7 +27866,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -27809,7 +27877,7 @@
     </row>
     <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -27843,6 +27911,7 @@
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
     </row>
     <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -27910,6 +27979,9 @@
       </c>
       <c r="V104" s="19">
         <v>2020</v>
+      </c>
+      <c r="W104" s="19">
+        <v>2021</v>
       </c>
     </row>
     <row r="105" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27982,7 +28054,9 @@
       <c r="V106" s="22">
         <v>7.8003389960755873</v>
       </c>
-      <c r="W106" s="10"/>
+      <c r="W106" s="22">
+        <v>8.0224383103595933</v>
+      </c>
       <c r="X106" s="10"/>
       <c r="Y106" s="10"/>
       <c r="Z106" s="10"/>
@@ -28124,7 +28198,9 @@
       <c r="V107" s="22">
         <v>92.199661003924405</v>
       </c>
-      <c r="W107" s="10"/>
+      <c r="W107" s="22">
+        <v>91.97756168964041</v>
+      </c>
       <c r="X107" s="10"/>
       <c r="Y107" s="10"/>
       <c r="Z107" s="10"/>
@@ -28222,7 +28298,7 @@
       <c r="T108" s="23"/>
       <c r="U108" s="23"/>
       <c r="V108" s="23"/>
-      <c r="W108" s="10"/>
+      <c r="W108" s="23"/>
       <c r="X108" s="10"/>
       <c r="Y108" s="10"/>
       <c r="Z108" s="10"/>
@@ -28364,7 +28440,9 @@
       <c r="V109" s="22">
         <v>100</v>
       </c>
-      <c r="W109" s="10"/>
+      <c r="W109" s="22">
+        <v>100</v>
+      </c>
       <c r="X109" s="10"/>
       <c r="Y109" s="10"/>
       <c r="Z109" s="10"/>
@@ -28462,6 +28540,7 @@
       <c r="T110" s="17"/>
       <c r="U110" s="17"/>
       <c r="V110" s="17"/>
+      <c r="W110" s="17"/>
     </row>
     <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
@@ -28676,7 +28755,7 @@
     </row>
     <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -28687,7 +28766,7 @@
     </row>
     <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -28721,6 +28800,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
+      <c r="W122" s="6"/>
     </row>
     <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
@@ -28788,6 +28868,9 @@
       </c>
       <c r="V123" s="19">
         <v>2020</v>
+      </c>
+      <c r="W123" s="19">
+        <v>2021</v>
       </c>
     </row>
     <row r="124" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28860,7 +28943,9 @@
       <c r="V125" s="22">
         <v>7.7970110539994115</v>
       </c>
-      <c r="W125" s="10"/>
+      <c r="W125" s="22">
+        <v>7.8281576491522467</v>
+      </c>
       <c r="X125" s="10"/>
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
@@ -29002,7 +29087,9 @@
       <c r="V126" s="22">
         <v>92.202988946000588</v>
       </c>
-      <c r="W126" s="10"/>
+      <c r="W126" s="22">
+        <v>92.171842350847754</v>
+      </c>
       <c r="X126" s="10"/>
       <c r="Y126" s="10"/>
       <c r="Z126" s="10"/>
@@ -29100,7 +29187,7 @@
       <c r="T127" s="23"/>
       <c r="U127" s="23"/>
       <c r="V127" s="23"/>
-      <c r="W127" s="10"/>
+      <c r="W127" s="23"/>
       <c r="X127" s="10"/>
       <c r="Y127" s="10"/>
       <c r="Z127" s="10"/>
@@ -29242,7 +29329,9 @@
       <c r="V128" s="22">
         <v>100</v>
       </c>
-      <c r="W128" s="10"/>
+      <c r="W128" s="22">
+        <v>100</v>
+      </c>
       <c r="X128" s="10"/>
       <c r="Y128" s="10"/>
       <c r="Z128" s="10"/>
@@ -29340,6 +29429,7 @@
       <c r="T129" s="17"/>
       <c r="U129" s="17"/>
       <c r="V129" s="17"/>
+      <c r="W129" s="17"/>
     </row>
     <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
@@ -29548,9 +29638,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="21" man="1"/>
-    <brk id="76" max="21" man="1"/>
-    <brk id="94" max="21" man="1"/>
+    <brk id="38" max="22" man="1"/>
+    <brk id="76" max="22" man="1"/>
+    <brk id="94" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD26B72-EC45-479B-8834-757BC4655C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="1" r:id="rId1"/>
@@ -601,19 +602,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -752,9 +753,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23576,7 +23577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23585,7 +23586,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23607,7 +23608,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -23618,7 +23619,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23838,10 +23839,10 @@
         <v>52314.838524440616</v>
       </c>
       <c r="V12" s="9">
-        <v>46241.85138730106</v>
+        <v>46656.540434222399</v>
       </c>
       <c r="W12" s="9">
-        <v>51243.552308117476</v>
+        <v>51472.664339597002</v>
       </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
@@ -23982,10 +23983,10 @@
         <v>510518.85183390096</v>
       </c>
       <c r="V13" s="13">
-        <v>546576.63266276009</v>
+        <v>546382.83482312958</v>
       </c>
       <c r="W13" s="13">
-        <v>587509.28474324732</v>
+        <v>588719.55457029468</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
@@ -24224,10 +24225,10 @@
         <v>562833.69035834156</v>
       </c>
       <c r="V15" s="16">
-        <v>592818.4840500612</v>
+        <v>593039.37525735202</v>
       </c>
       <c r="W15" s="16">
-        <v>638752.83705136483</v>
+        <v>640192.21890989167</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -24541,7 +24542,7 @@
     </row>
     <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -24552,7 +24553,7 @@
     </row>
     <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -24772,10 +24773,10 @@
         <v>52743.853981454027</v>
       </c>
       <c r="V31" s="9">
-        <v>45611.001823416416</v>
+        <v>46008.041903005862</v>
       </c>
       <c r="W31" s="9">
-        <v>49939.06196006565</v>
+        <v>50143.031885170749</v>
       </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
@@ -24916,10 +24917,10 @@
         <v>504263.28828176321</v>
       </c>
       <c r="V32" s="13">
-        <v>539369.59532503365</v>
+        <v>539177.07509916835</v>
       </c>
       <c r="W32" s="13">
-        <v>588002.38222474616</v>
+        <v>588980.09803972382</v>
       </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
@@ -25158,10 +25159,10 @@
         <v>557007.14226321725</v>
       </c>
       <c r="V34" s="16">
-        <v>584980.59714845009</v>
+        <v>585185.11700217426</v>
       </c>
       <c r="W34" s="16">
-        <v>637941.44418481179</v>
+        <v>639123.12992489454</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
@@ -25475,7 +25476,7 @@
     </row>
     <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25486,7 +25487,7 @@
     </row>
     <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25656,10 +25657,10 @@
         <v>5.6711218416403568</v>
       </c>
       <c r="U50" s="22">
-        <v>-11.608536523155593</v>
+        <v>-10.815856934308911</v>
       </c>
       <c r="V50" s="22">
-        <v>10.816394177050583</v>
+        <v>10.322505399140127</v>
       </c>
       <c r="W50" s="22"/>
       <c r="X50" s="10"/>
@@ -25793,10 +25794,10 @@
         <v>9.4553104267926358</v>
       </c>
       <c r="U51" s="22">
-        <v>7.0629675474923772</v>
+        <v>7.0250065909215493</v>
       </c>
       <c r="V51" s="22">
-        <v>7.488913655359795</v>
+        <v>7.748544985105525</v>
       </c>
       <c r="W51" s="22"/>
       <c r="X51" s="10"/>
@@ -26023,10 +26024,10 @@
         <v>9.0921864693506791</v>
       </c>
       <c r="U53" s="22">
-        <v>5.3274695892189925</v>
+        <v>5.3667158552252374</v>
       </c>
       <c r="V53" s="22">
-        <v>7.7484684160800583</v>
+        <v>7.9510477077643316</v>
       </c>
       <c r="W53" s="22"/>
       <c r="X53" s="10"/>
@@ -26326,7 +26327,7 @@
     </row>
     <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -26337,7 +26338,7 @@
     </row>
     <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -26507,10 +26508,10 @@
         <v>6.5376932754569879</v>
       </c>
       <c r="U69" s="22">
-        <v>-13.523570273316949</v>
+        <v>-12.77079995105521</v>
       </c>
       <c r="V69" s="22">
-        <v>9.4890705391768648</v>
+        <v>8.9875374198325346</v>
       </c>
       <c r="W69" s="22"/>
       <c r="X69" s="10"/>
@@ -26644,10 +26645,10 @@
         <v>8.1141167607131877</v>
       </c>
       <c r="U70" s="22">
-        <v>6.9619002332873379</v>
+        <v>6.9237217201297767</v>
       </c>
       <c r="V70" s="22">
-        <v>9.0165977691800663</v>
+        <v>9.2368583978455376</v>
       </c>
       <c r="W70" s="22"/>
       <c r="X70" s="10"/>
@@ -26874,10 +26875,10 @@
         <v>7.96284598715377</v>
       </c>
       <c r="U72" s="22">
-        <v>5.0220998552319855</v>
+        <v>5.058817491004703</v>
       </c>
       <c r="V72" s="22">
-        <v>9.0534365232838354</v>
+        <v>9.2172564468210538</v>
       </c>
       <c r="W72" s="22"/>
       <c r="X72" s="10"/>
@@ -27173,7 +27174,7 @@
     </row>
     <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -27184,7 +27185,7 @@
     </row>
     <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -27359,10 +27360,10 @@
         <v>99.186605785075429</v>
       </c>
       <c r="V87" s="22">
-        <v>101.38310832620381</v>
+        <v>101.40953299552218</v>
       </c>
       <c r="W87" s="22">
-        <v>102.61216429955167</v>
+        <v>102.65167941474134</v>
       </c>
       <c r="X87" s="10"/>
       <c r="Y87" s="10"/>
@@ -27503,10 +27504,10 @@
         <v>101.2405351921321</v>
       </c>
       <c r="V88" s="22">
-        <v>101.33619644121457</v>
+        <v>101.33643659138065</v>
       </c>
       <c r="W88" s="22">
-        <v>99.916140223848544</v>
+        <v>99.955763620825849</v>
       </c>
       <c r="X88" s="10"/>
       <c r="Y88" s="10"/>
@@ -27745,10 +27746,10 @@
         <v>101.04604549080824</v>
       </c>
       <c r="V90" s="22">
-        <v>101.33985416607281</v>
+        <v>101.34218352910513</v>
       </c>
       <c r="W90" s="22">
-        <v>100.1271892387537</v>
+        <v>100.1672743380642</v>
       </c>
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
@@ -27866,7 +27867,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -27877,7 +27878,7 @@
     </row>
     <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -28052,10 +28053,10 @@
         <v>9.2949017481759348</v>
       </c>
       <c r="V106" s="22">
-        <v>7.8003389960755873</v>
+        <v>7.8673596359391125</v>
       </c>
       <c r="W106" s="22">
-        <v>8.0224383103595933</v>
+        <v>8.040188996242998</v>
       </c>
       <c r="X106" s="10"/>
       <c r="Y106" s="10"/>
@@ -28196,10 +28197,10 @@
         <v>90.705098251824069</v>
       </c>
       <c r="V107" s="22">
-        <v>92.199661003924405</v>
+        <v>92.132640364060876</v>
       </c>
       <c r="W107" s="22">
-        <v>91.97756168964041</v>
+        <v>91.959811003757011</v>
       </c>
       <c r="X107" s="10"/>
       <c r="Y107" s="10"/>
@@ -28755,7 +28756,7 @@
     </row>
     <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -28766,7 +28767,7 @@
     </row>
     <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -28941,10 +28942,10 @@
         <v>9.4691521848618567</v>
       </c>
       <c r="V125" s="22">
-        <v>7.7970110539994115</v>
+        <v>7.8621346589774808</v>
       </c>
       <c r="W125" s="22">
-        <v>7.8281576491522467</v>
+        <v>7.8455980604337103</v>
       </c>
       <c r="X125" s="10"/>
       <c r="Y125" s="10"/>
@@ -29085,10 +29086,10 @@
         <v>90.530847815138145</v>
       </c>
       <c r="V126" s="22">
-        <v>92.202988946000588</v>
+        <v>92.137865341022504</v>
       </c>
       <c r="W126" s="22">
-        <v>92.171842350847754</v>
+        <v>92.154401939566284</v>
       </c>
       <c r="X126" s="10"/>
       <c r="Y126" s="10"/>

--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD26B72-EC45-479B-8834-757BC4655C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D2D609-7E70-423E-A341-577B6C48C189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$W$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$X$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -602,13 +602,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>As of April 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -616,10 +619,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -704,53 +707,52 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -771,7 +773,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15138,7 +15140,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -15252,7 +15254,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15961,7 +15963,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15984,7 +15986,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -16013,7 +16015,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -16076,7 +16078,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16105,7 +16107,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16136,7 +16138,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18530,7 +18532,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18618,7 +18620,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18639,7 +18641,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18656,7 +18658,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18713,7 +18715,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18754,7 +18756,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18767,7 +18769,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18780,7 +18782,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18827,7 +18829,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18856,7 +18858,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23273,7 +23275,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23584,45 +23586,45 @@
   <dimension ref="A1:CR132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1"/>
+      <selection pane="topRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="11"/>
+    <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
+    <col min="2" max="24" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -23648,8 +23650,9 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23672,8 +23675,9 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -23699,8 +23703,9 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
     </row>
-    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -23770,11 +23775,14 @@
       <c r="W10" s="7">
         <v>2021</v>
       </c>
+      <c r="X10" s="7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -23844,7 +23852,9 @@
       <c r="W12" s="9">
         <v>51472.664339597002</v>
       </c>
-      <c r="X12" s="10"/>
+      <c r="X12" s="9">
+        <v>59000.571023291843</v>
+      </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -23918,7 +23928,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
@@ -23988,7 +23998,9 @@
       <c r="W13" s="13">
         <v>588719.55457029468</v>
       </c>
-      <c r="X13" s="10"/>
+      <c r="X13" s="13">
+        <v>636265.20415602683</v>
+      </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -24062,31 +24074,31 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="10"/>
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -24160,77 +24172,79 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>119503.20707706937</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>145038.48476833469</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>171667.23041145617</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>203479.66683187798</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>244262.36988635824</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>278862.74126679875</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>300317.15100522828</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>325498.58199280716</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>349672.02567613468</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>362014.95165213139</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>368943.11185301386</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <v>380319.66758086812</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <v>400014.07750848366</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="15">
         <v>415001.3931663254</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="15">
         <v>429320.64261367684</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="15">
         <v>455634.75243273651</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="15">
         <v>473142.49543121521</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="15">
         <v>490329.65715193754</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="15">
         <v>515924.84170850215</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="15">
         <v>562833.69035834156</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="15">
         <v>593039.37525735202</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="15">
         <v>640192.21890989167</v>
       </c>
-      <c r="X15" s="10"/>
+      <c r="X15" s="15">
+        <v>695265.77517931862</v>
+      </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -24304,38 +24318,39 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
+    <row r="16" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -24432,8 +24447,8 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -24530,33 +24545,33 @@
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
     </row>
-    <row r="20" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -24582,8 +24597,9 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -24606,8 +24622,9 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>4</v>
@@ -24633,82 +24650,86 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
     </row>
-    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>2000</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>2001</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>2002</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>2003</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>2004</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <v>2005</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="18">
         <v>2006</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>2007</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="18">
         <v>2008</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="18">
         <v>2009</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="18">
         <v>2010</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="18">
         <v>2011</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="18">
         <v>2012</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="18">
         <v>2013</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="18">
         <v>2014</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="18">
         <v>2015</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R29" s="18">
         <v>2016</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="18">
         <v>2017</v>
       </c>
-      <c r="T29" s="19">
+      <c r="T29" s="18">
         <v>2018</v>
       </c>
-      <c r="U29" s="19">
+      <c r="U29" s="18">
         <v>2019</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="18">
         <v>2020</v>
       </c>
-      <c r="W29" s="19">
+      <c r="W29" s="18">
         <v>2021</v>
       </c>
+      <c r="X29" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -24778,7 +24799,9 @@
       <c r="W31" s="9">
         <v>50143.031885170749</v>
       </c>
-      <c r="X31" s="10"/>
+      <c r="X31" s="9">
+        <v>56408.270966795128</v>
+      </c>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
@@ -24852,7 +24875,7 @@
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
@@ -24922,7 +24945,9 @@
       <c r="W32" s="13">
         <v>588980.09803972382</v>
       </c>
-      <c r="X32" s="10"/>
+      <c r="X32" s="13">
+        <v>632815.65971921862</v>
+      </c>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
@@ -24996,8 +25021,8 @@
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -25094,77 +25119,79 @@
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>100927.63966841807</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>122760.21742924933</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>143507.22230178976</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>173672.65355288592</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>210347.00467093833</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>241021.10908355922</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <v>256346.45876771089</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <v>288410.89673187124</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <v>308093.33605808078</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <v>317327.46853164706</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="15">
         <v>326583.33240274375</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <v>342110.92251278926</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="15">
         <v>363733.075053318</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="15">
         <v>386419.82751877396</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="15">
         <v>402218.68845213158</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="15">
         <v>436741.3524066605</v>
       </c>
-      <c r="R34" s="16">
+      <c r="R34" s="15">
         <v>462875.65022174956</v>
       </c>
-      <c r="S34" s="16">
+      <c r="S34" s="15">
         <v>483683.44636634801</v>
       </c>
-      <c r="T34" s="16">
+      <c r="T34" s="15">
         <v>515924.84170850227</v>
       </c>
-      <c r="U34" s="16">
+      <c r="U34" s="15">
         <v>557007.14226321725</v>
       </c>
-      <c r="V34" s="16">
+      <c r="V34" s="15">
         <v>585185.11700217426</v>
       </c>
-      <c r="W34" s="16">
+      <c r="W34" s="15">
         <v>639123.12992489454</v>
       </c>
-      <c r="X34" s="10"/>
+      <c r="X34" s="15">
+        <v>689223.93068601377</v>
+      </c>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
@@ -25238,38 +25265,39 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
+    <row r="35" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
     </row>
-    <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -25366,8 +25394,8 @@
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -25464,206 +25492,212 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
     </row>
-    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="21" t="s">
+      <c r="J48" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="L48" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="21" t="s">
+      <c r="M48" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="21" t="s">
+      <c r="N48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="O48" s="21" t="s">
+      <c r="O48" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P48" s="21" t="s">
+      <c r="P48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="21" t="s">
+      <c r="Q48" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="21" t="s">
+      <c r="R48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="S48" s="21" t="s">
+      <c r="S48" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="T48" s="21" t="s">
+      <c r="T48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="U48" s="21" t="s">
+      <c r="U48" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="V48" s="21" t="s">
+      <c r="V48" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="W48" s="21"/>
+      <c r="W48" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X48" s="20"/>
     </row>
-    <row r="49" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="21">
         <v>4.2899451477880035</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="21">
         <v>8.5015197045030817</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>14.303890876973085</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="21">
         <v>17.191951589925168</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="21">
         <v>12.28667367905814</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="21">
         <v>13.873422331874892</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="21">
         <v>17.464331131726453</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="21">
         <v>18.361219570809027</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="21">
         <v>17.766225578997435</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <v>19.437398362084963</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="21">
         <v>15.07810411239025</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="21">
         <v>16.559021883284558</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N50" s="21">
         <v>10.920435022900477</v>
       </c>
-      <c r="O50" s="22">
+      <c r="O50" s="21">
         <v>17.089213658897179</v>
       </c>
-      <c r="P50" s="22">
+      <c r="P50" s="21">
         <v>11.384787064693597</v>
       </c>
-      <c r="Q50" s="22">
+      <c r="Q50" s="21">
         <v>16.009777384374175</v>
       </c>
-      <c r="R50" s="22">
+      <c r="R50" s="21">
         <v>6.0283248681079868</v>
       </c>
-      <c r="S50" s="22">
+      <c r="S50" s="21">
         <v>5.3055500515773986</v>
       </c>
-      <c r="T50" s="22">
+      <c r="T50" s="21">
         <v>5.6711218416403568</v>
       </c>
-      <c r="U50" s="22">
+      <c r="U50" s="21">
         <v>-10.815856934308911</v>
       </c>
-      <c r="V50" s="22">
+      <c r="V50" s="21">
         <v>10.322505399140127</v>
       </c>
-      <c r="W50" s="22"/>
-      <c r="X50" s="10"/>
+      <c r="W50" s="21">
+        <v>14.625057358656605</v>
+      </c>
+      <c r="X50" s="21"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
@@ -25732,75 +25766,77 @@
       <c r="CL50" s="10"/>
       <c r="CM50" s="10"/>
     </row>
-    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="21">
         <v>22.144300509049785</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="21">
         <v>18.74246560286285</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>18.681411119668141</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="21">
         <v>20.140029927407838</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="21">
         <v>14.227850533152278</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="21">
         <v>7.4910970466086866</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="21">
         <v>8.0698641802386248</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="21">
         <v>7.0141384902787394</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="21">
         <v>2.9359272688304259</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="21">
         <v>1.0773769646256</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="21">
         <v>2.4070637904433596</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="21">
         <v>4.457099454529839</v>
       </c>
-      <c r="N51" s="22">
+      <c r="N51" s="21">
         <v>3.2393642116747685</v>
       </c>
-      <c r="O51" s="22">
+      <c r="O51" s="21">
         <v>2.4140992538293631</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51" s="21">
         <v>5.672693915119126</v>
       </c>
-      <c r="Q51" s="22">
+      <c r="Q51" s="21">
         <v>2.7283864708949324</v>
       </c>
-      <c r="R51" s="22">
+      <c r="R51" s="21">
         <v>3.384822472146169</v>
       </c>
-      <c r="S51" s="22">
+      <c r="S51" s="21">
         <v>5.2109222618304187</v>
       </c>
-      <c r="T51" s="22">
+      <c r="T51" s="21">
         <v>9.4553104267926358</v>
       </c>
-      <c r="U51" s="22">
+      <c r="U51" s="21">
         <v>7.0250065909215493</v>
       </c>
-      <c r="V51" s="22">
+      <c r="V51" s="21">
         <v>7.748544985105525</v>
       </c>
-      <c r="W51" s="22"/>
-      <c r="X51" s="10"/>
+      <c r="W51" s="21">
+        <v>8.0761118289056384</v>
+      </c>
+      <c r="X51" s="21"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
@@ -25869,31 +25905,31 @@
       <c r="CL51" s="10"/>
       <c r="CM51" s="10"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="10"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
@@ -25962,75 +25998,77 @@
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="22">
+      <c r="B53" s="21">
         <v>21.367859755259317</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="21">
         <v>18.359779258349747</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <v>18.531455505033193</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="21">
         <v>20.042642928139017</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="21">
         <v>14.165248374744806</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="21">
         <v>7.6935375593626816</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="21">
         <v>8.3849460156674382</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="21">
         <v>7.4265895523507197</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="21">
         <v>3.5298580011169349</v>
       </c>
-      <c r="K53" s="22">
+      <c r="K53" s="21">
         <v>1.9137773645161218</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="21">
         <v>3.0835528194890429</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="21">
         <v>5.1783832408372348</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N53" s="21">
         <v>3.7466970540615137</v>
       </c>
-      <c r="O53" s="22">
+      <c r="O53" s="21">
         <v>3.4504099704582245</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P53" s="21">
         <v>6.1292440211728518</v>
       </c>
-      <c r="Q53" s="22">
+      <c r="Q53" s="21">
         <v>3.8424950917376179</v>
       </c>
-      <c r="R53" s="22">
+      <c r="R53" s="21">
         <v>3.6325550730881275</v>
       </c>
-      <c r="S53" s="22">
+      <c r="S53" s="21">
         <v>5.2199951977682417</v>
       </c>
-      <c r="T53" s="22">
+      <c r="T53" s="21">
         <v>9.0921864693506791</v>
       </c>
-      <c r="U53" s="22">
+      <c r="U53" s="21">
         <v>5.3667158552252374</v>
       </c>
-      <c r="V53" s="22">
+      <c r="V53" s="21">
         <v>7.9510477077643316</v>
       </c>
-      <c r="W53" s="22"/>
-      <c r="X53" s="10"/>
+      <c r="W53" s="21">
+        <v>8.6026594267586205</v>
+      </c>
+      <c r="X53" s="21"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
@@ -26099,38 +26137,39 @@
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
     </row>
-    <row r="54" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
+    <row r="54" spans="1:91" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
     </row>
-    <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+    <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -26222,8 +26261,8 @@
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -26315,66 +26354,67 @@
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
     </row>
-    <row r="58" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
     </row>
-    <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>3</v>
       </c>
@@ -26441,80 +26481,85 @@
       <c r="V67" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="7"/>
+      <c r="W67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X67" s="7"/>
     </row>
-    <row r="68" spans="1:92" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
     </row>
-    <row r="69" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B69" s="21">
         <v>3.9427462678227982</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="21">
         <v>8.3059915263700788</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="21">
         <v>15.867639116086195</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="21">
         <v>16.690468921928897</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="21">
         <v>9.4428441632053364</v>
       </c>
-      <c r="G69" s="22">
+      <c r="G69" s="21">
         <v>10.633996008376158</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="21">
         <v>13.206731664463248</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="21">
         <v>12.067706035276956</v>
       </c>
-      <c r="J69" s="22">
+      <c r="J69" s="21">
         <v>11.863502603192003</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K69" s="21">
         <v>15.805006797052684</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L69" s="21">
         <v>12.618371020980177</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M69" s="21">
         <v>10.682708558845903</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N69" s="21">
         <v>8.2139031661279063</v>
       </c>
-      <c r="O69" s="22">
+      <c r="O69" s="21">
         <v>12.471644937016222</v>
       </c>
-      <c r="P69" s="22">
+      <c r="P69" s="21">
         <v>9.3262320713268281</v>
       </c>
-      <c r="Q69" s="22">
+      <c r="Q69" s="21">
         <v>13.270400647972934</v>
       </c>
-      <c r="R69" s="22">
+      <c r="R69" s="21">
         <v>4.3613817727997031</v>
       </c>
-      <c r="S69" s="22">
+      <c r="S69" s="21">
         <v>2.7280961112309683</v>
       </c>
-      <c r="T69" s="22">
+      <c r="T69" s="21">
         <v>6.5376932754569879</v>
       </c>
-      <c r="U69" s="22">
+      <c r="U69" s="21">
         <v>-12.77079995105521</v>
       </c>
-      <c r="V69" s="22">
+      <c r="V69" s="21">
         <v>8.9875374198325346</v>
       </c>
-      <c r="W69" s="22"/>
-      <c r="X69" s="10"/>
+      <c r="W69" s="21">
+        <v>12.494735252491296</v>
+      </c>
+      <c r="X69" s="21"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
@@ -26583,75 +26628,77 @@
       <c r="CL69" s="10"/>
       <c r="CM69" s="10"/>
     </row>
-    <row r="70" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="21">
         <v>23.178574480817929</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="21">
         <v>17.53454059005773</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="21">
         <v>21.370458970750136</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="21">
         <v>21.404244283150192</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="21">
         <v>14.903268489144921</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G70" s="21">
         <v>6.1044556113725577</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="21">
         <v>12.464966273261496</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="21">
         <v>6.4974408681827072</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70" s="21">
         <v>2.4153053081373344</v>
       </c>
-      <c r="K70" s="22">
+      <c r="K70" s="21">
         <v>1.9929565680766927</v>
       </c>
-      <c r="L70" s="22">
+      <c r="L70" s="21">
         <v>4.1145196291756179</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="21">
         <v>5.9361521512500701</v>
       </c>
-      <c r="N70" s="22">
+      <c r="N70" s="21">
         <v>6.0553757129331984</v>
       </c>
-      <c r="O70" s="22">
+      <c r="O70" s="21">
         <v>3.3017271569081714</v>
       </c>
-      <c r="P70" s="22">
+      <c r="P70" s="21">
         <v>8.5071162007848358</v>
       </c>
-      <c r="Q70" s="22">
+      <c r="Q70" s="21">
         <v>5.2337343105147482</v>
       </c>
-      <c r="R70" s="22">
+      <c r="R70" s="21">
         <v>4.5101761323545304</v>
       </c>
-      <c r="S70" s="22">
+      <c r="S70" s="21">
         <v>7.1015614168016299</v>
       </c>
-      <c r="T70" s="22">
+      <c r="T70" s="21">
         <v>8.1141167607131877</v>
       </c>
-      <c r="U70" s="22">
+      <c r="U70" s="21">
         <v>6.9237217201297767</v>
       </c>
-      <c r="V70" s="22">
+      <c r="V70" s="21">
         <v>9.2368583978455376</v>
       </c>
-      <c r="W70" s="22"/>
-      <c r="X70" s="10"/>
+      <c r="W70" s="21">
+        <v>7.442621885763316</v>
+      </c>
+      <c r="X70" s="21"/>
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
@@ -26720,31 +26767,31 @@
       <c r="CL70" s="10"/>
       <c r="CM70" s="10"/>
     </row>
-    <row r="71" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="10"/>
+    <row r="71" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
@@ -26813,75 +26860,77 @@
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
     </row>
-    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B72" s="21">
         <v>21.631911568088569</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="21">
         <v>16.900430210216584</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="21">
         <v>21.020148510476716</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="21">
         <v>21.116940616609227</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="21">
         <v>14.5826200190522</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="21">
         <v>6.3585093199610725</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="21">
         <v>12.508242992042113</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="21">
         <v>6.8244437187502882</v>
       </c>
-      <c r="J72" s="22">
+      <c r="J72" s="21">
         <v>2.9971866940430942</v>
       </c>
-      <c r="K72" s="22">
+      <c r="K72" s="21">
         <v>2.916817732144608</v>
       </c>
-      <c r="L72" s="22">
+      <c r="L72" s="21">
         <v>4.7545568219313736</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="21">
         <v>6.3202169582061316</v>
       </c>
-      <c r="N72" s="22">
+      <c r="N72" s="21">
         <v>6.2371981052672822</v>
       </c>
-      <c r="O72" s="22">
+      <c r="O72" s="21">
         <v>4.0885223294061035</v>
       </c>
-      <c r="P72" s="22">
+      <c r="P72" s="21">
         <v>8.5830581585811814</v>
       </c>
-      <c r="Q72" s="22">
+      <c r="Q72" s="21">
         <v>5.9839302303471413</v>
       </c>
-      <c r="R72" s="22">
+      <c r="R72" s="21">
         <v>4.4953317666699633</v>
       </c>
-      <c r="S72" s="22">
+      <c r="S72" s="21">
         <v>6.6658049979519518</v>
       </c>
-      <c r="T72" s="22">
+      <c r="T72" s="21">
         <v>7.96284598715377</v>
       </c>
-      <c r="U72" s="22">
+      <c r="U72" s="21">
         <v>5.058817491004703</v>
       </c>
-      <c r="V72" s="22">
+      <c r="V72" s="21">
         <v>9.2172564468210538</v>
       </c>
-      <c r="W72" s="22"/>
-      <c r="X72" s="10"/>
+      <c r="W72" s="21">
+        <v>7.8389903940742585</v>
+      </c>
+      <c r="X72" s="21"/>
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
@@ -26950,38 +26999,39 @@
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
     </row>
-    <row r="73" spans="1:92" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
+    <row r="73" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
     </row>
-    <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -27073,8 +27123,8 @@
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
     </row>
-    <row r="76" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+    <row r="76" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -27167,34 +27217,34 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
     </row>
-    <row r="77" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
         <v>4</v>
@@ -27220,152 +27270,158 @@
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
     </row>
-    <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="18">
         <v>2000</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="18">
         <v>2001</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="18">
         <v>2002</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="18">
         <v>2003</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="18">
         <v>2004</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="18">
         <v>2005</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H85" s="18">
         <v>2006</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I85" s="18">
         <v>2007</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J85" s="18">
         <v>2008</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K85" s="18">
         <v>2009</v>
       </c>
-      <c r="L85" s="19">
+      <c r="L85" s="18">
         <v>2010</v>
       </c>
-      <c r="M85" s="19">
+      <c r="M85" s="18">
         <v>2011</v>
       </c>
-      <c r="N85" s="19">
+      <c r="N85" s="18">
         <v>2012</v>
       </c>
-      <c r="O85" s="19">
+      <c r="O85" s="18">
         <v>2013</v>
       </c>
-      <c r="P85" s="19">
+      <c r="P85" s="18">
         <v>2014</v>
       </c>
-      <c r="Q85" s="19">
+      <c r="Q85" s="18">
         <v>2015</v>
       </c>
-      <c r="R85" s="19">
+      <c r="R85" s="18">
         <v>2016</v>
       </c>
-      <c r="S85" s="19">
+      <c r="S85" s="18">
         <v>2017</v>
       </c>
-      <c r="T85" s="19">
+      <c r="T85" s="18">
         <v>2018</v>
       </c>
-      <c r="U85" s="19">
+      <c r="U85" s="18">
         <v>2019</v>
       </c>
-      <c r="V85" s="19">
+      <c r="V85" s="18">
         <v>2020</v>
       </c>
-      <c r="W85" s="19">
+      <c r="W85" s="18">
         <v>2021</v>
       </c>
+      <c r="X85" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="86" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="21">
         <v>64.039629399713974</v>
       </c>
-      <c r="C87" s="22">
+      <c r="C87" s="21">
         <v>64.253540311242858</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="21">
         <v>64.369539227817981</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="21">
         <v>63.500808714381222</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="21">
         <v>63.773706366333549</v>
       </c>
-      <c r="G87" s="22">
+      <c r="G87" s="21">
         <v>65.430841192156009</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="21">
         <v>67.346693434449492</v>
       </c>
-      <c r="I87" s="22">
+      <c r="I87" s="21">
         <v>69.879539687252858</v>
       </c>
-      <c r="J87" s="22">
+      <c r="J87" s="21">
         <v>73.803844417288445</v>
       </c>
-      <c r="K87" s="22">
+      <c r="K87" s="21">
         <v>77.698266083039755</v>
       </c>
-      <c r="L87" s="22">
+      <c r="L87" s="21">
         <v>80.135384599273465</v>
       </c>
-      <c r="M87" s="22">
+      <c r="M87" s="21">
         <v>81.88564661695959</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N87" s="21">
         <v>86.233080128127128</v>
       </c>
-      <c r="O87" s="22">
+      <c r="O87" s="21">
         <v>88.389850853937617</v>
       </c>
-      <c r="P87" s="22">
+      <c r="P87" s="21">
         <v>92.018731812008667</v>
       </c>
-      <c r="Q87" s="22">
+      <c r="Q87" s="21">
         <v>93.751395750625903</v>
       </c>
-      <c r="R87" s="22">
+      <c r="R87" s="21">
         <v>96.018717054825814</v>
       </c>
-      <c r="S87" s="22">
+      <c r="S87" s="21">
         <v>97.552404465781677</v>
       </c>
-      <c r="T87" s="22">
+      <c r="T87" s="21">
         <v>99.999999999999986</v>
       </c>
-      <c r="U87" s="22">
+      <c r="U87" s="21">
         <v>99.186605785075429</v>
       </c>
-      <c r="V87" s="22">
+      <c r="V87" s="21">
         <v>101.40953299552218</v>
       </c>
-      <c r="W87" s="22">
+      <c r="W87" s="21">
         <v>102.65167941474134</v>
       </c>
-      <c r="X87" s="10"/>
+      <c r="X87" s="21">
+        <v>104.5956027583662</v>
+      </c>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
@@ -27439,77 +27495,79 @@
       <c r="CQ87" s="10"/>
       <c r="CR87" s="10"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="21">
         <v>123.15829177620547</v>
       </c>
-      <c r="C88" s="22">
+      <c r="C88" s="21">
         <v>122.12418810900161</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="21">
         <v>123.37928180949855</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E88" s="21">
         <v>120.64572707607017</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="21">
         <v>119.38941135968702</v>
       </c>
-      <c r="G88" s="22">
+      <c r="G88" s="21">
         <v>118.68762320998488</v>
       </c>
-      <c r="H88" s="22">
+      <c r="H88" s="21">
         <v>120.23870959221421</v>
       </c>
-      <c r="I88" s="22">
+      <c r="I88" s="21">
         <v>115.53981160022013</v>
       </c>
-      <c r="J88" s="22">
+      <c r="J88" s="21">
         <v>116.10038043102564</v>
       </c>
-      <c r="K88" s="22">
+      <c r="K88" s="21">
         <v>116.69056963678305</v>
       </c>
-      <c r="L88" s="22">
+      <c r="L88" s="21">
         <v>115.64305117012094</v>
       </c>
-      <c r="M88" s="22">
+      <c r="M88" s="21">
         <v>113.74652988151954</v>
       </c>
-      <c r="N88" s="22">
+      <c r="N88" s="21">
         <v>112.1584307449412</v>
       </c>
-      <c r="O88" s="22">
+      <c r="O88" s="21">
         <v>109.18036924812699</v>
       </c>
-      <c r="P88" s="22">
+      <c r="P88" s="21">
         <v>108.24222866829056</v>
       </c>
-      <c r="Q88" s="22">
+      <c r="Q88" s="21">
         <v>105.41472577327484</v>
       </c>
-      <c r="R88" s="22">
+      <c r="R88" s="21">
         <v>102.90506898678369</v>
       </c>
-      <c r="S88" s="22">
+      <c r="S88" s="21">
         <v>101.79699893730243</v>
       </c>
-      <c r="T88" s="22">
+      <c r="T88" s="21">
         <v>99.999999999999972</v>
       </c>
-      <c r="U88" s="22">
+      <c r="U88" s="21">
         <v>101.2405351921321</v>
       </c>
-      <c r="V88" s="22">
+      <c r="V88" s="21">
         <v>101.33643659138065</v>
       </c>
-      <c r="W88" s="22">
+      <c r="W88" s="21">
         <v>99.955763620825849</v>
       </c>
-      <c r="X88" s="10"/>
+      <c r="X88" s="21">
+        <v>100.54511047314139</v>
+      </c>
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
       <c r="AA88" s="10"/>
@@ -27583,31 +27641,31 @@
       <c r="CQ88" s="10"/>
       <c r="CR88" s="10"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="23"/>
-      <c r="S89" s="23"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="23"/>
-      <c r="V89" s="23"/>
-      <c r="W89" s="23"/>
-      <c r="X89" s="10"/>
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
       <c r="Y89" s="10"/>
       <c r="Z89" s="10"/>
       <c r="AA89" s="10"/>
@@ -27681,77 +27739,79 @@
       <c r="CQ89" s="10"/>
       <c r="CR89" s="10"/>
     </row>
-    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="21">
         <v>118.40483684120467</v>
       </c>
-      <c r="C90" s="22">
+      <c r="C90" s="21">
         <v>118.14779071397869</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="21">
         <v>119.62271142733644</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="21">
         <v>117.16275571842714</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="21">
         <v>116.12353133740901</v>
       </c>
-      <c r="G90" s="22">
+      <c r="G90" s="21">
         <v>115.70054686376881</v>
       </c>
-      <c r="H90" s="22">
+      <c r="H90" s="21">
         <v>117.15283778402477</v>
       </c>
-      <c r="I90" s="22">
+      <c r="I90" s="21">
         <v>112.85932178055513</v>
       </c>
-      <c r="J90" s="22">
+      <c r="J90" s="21">
         <v>113.49548489105121</v>
       </c>
-      <c r="K90" s="22">
+      <c r="K90" s="21">
         <v>114.08245032403417</v>
       </c>
-      <c r="L90" s="22">
+      <c r="L90" s="21">
         <v>112.9705882840438</v>
       </c>
-      <c r="M90" s="22">
+      <c r="M90" s="21">
         <v>111.16852533892731</v>
       </c>
-      <c r="N90" s="22">
+      <c r="N90" s="21">
         <v>109.9746228604169</v>
       </c>
-      <c r="O90" s="22">
+      <c r="O90" s="21">
         <v>107.39650597928048</v>
       </c>
-      <c r="P90" s="22">
+      <c r="P90" s="21">
         <v>106.73811410052636</v>
       </c>
-      <c r="Q90" s="22">
+      <c r="Q90" s="21">
         <v>104.32599292967429</v>
       </c>
-      <c r="R90" s="22">
+      <c r="R90" s="21">
         <v>102.21805688083766</v>
       </c>
-      <c r="S90" s="22">
+      <c r="S90" s="21">
         <v>101.37408274678799</v>
       </c>
-      <c r="T90" s="22">
+      <c r="T90" s="21">
         <v>99.999999999999972</v>
       </c>
-      <c r="U90" s="22">
+      <c r="U90" s="21">
         <v>101.04604549080824</v>
       </c>
-      <c r="V90" s="22">
+      <c r="V90" s="21">
         <v>101.34218352910513</v>
       </c>
-      <c r="W90" s="22">
+      <c r="W90" s="21">
         <v>100.1672743380642</v>
       </c>
-      <c r="X90" s="10"/>
+      <c r="X90" s="21">
+        <v>100.87661559970664</v>
+      </c>
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
       <c r="AA90" s="10"/>
@@ -27825,69 +27885,70 @@
       <c r="CQ90" s="10"/>
       <c r="CR90" s="10"/>
     </row>
-    <row r="91" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
+    <row r="91" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
+      <c r="X91" s="16"/>
     </row>
-    <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+    <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="6" t="s">
         <v>4</v>
@@ -27913,152 +27974,158 @@
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
     </row>
-    <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="19">
+      <c r="B104" s="18">
         <v>2000</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C104" s="18">
         <v>2001</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="18">
         <v>2002</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="18">
         <v>2003</v>
       </c>
-      <c r="F104" s="19">
+      <c r="F104" s="18">
         <v>2004</v>
       </c>
-      <c r="G104" s="19">
+      <c r="G104" s="18">
         <v>2005</v>
       </c>
-      <c r="H104" s="19">
+      <c r="H104" s="18">
         <v>2006</v>
       </c>
-      <c r="I104" s="19">
+      <c r="I104" s="18">
         <v>2007</v>
       </c>
-      <c r="J104" s="19">
+      <c r="J104" s="18">
         <v>2008</v>
       </c>
-      <c r="K104" s="19">
+      <c r="K104" s="18">
         <v>2009</v>
       </c>
-      <c r="L104" s="19">
+      <c r="L104" s="18">
         <v>2010</v>
       </c>
-      <c r="M104" s="19">
+      <c r="M104" s="18">
         <v>2011</v>
       </c>
-      <c r="N104" s="19">
+      <c r="N104" s="18">
         <v>2012</v>
       </c>
-      <c r="O104" s="19">
+      <c r="O104" s="18">
         <v>2013</v>
       </c>
-      <c r="P104" s="19">
+      <c r="P104" s="18">
         <v>2014</v>
       </c>
-      <c r="Q104" s="19">
+      <c r="Q104" s="18">
         <v>2015</v>
       </c>
-      <c r="R104" s="19">
+      <c r="R104" s="18">
         <v>2016</v>
       </c>
-      <c r="S104" s="19">
+      <c r="S104" s="18">
         <v>2017</v>
       </c>
-      <c r="T104" s="19">
+      <c r="T104" s="18">
         <v>2018</v>
       </c>
-      <c r="U104" s="19">
+      <c r="U104" s="18">
         <v>2019</v>
       </c>
-      <c r="V104" s="19">
+      <c r="V104" s="18">
         <v>2020</v>
       </c>
-      <c r="W104" s="19">
+      <c r="W104" s="18">
         <v>2021</v>
       </c>
+      <c r="X104" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="105" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B106" s="22">
+      <c r="B106" s="21">
         <v>4.3487470596393765</v>
       </c>
-      <c r="C106" s="22">
+      <c r="C106" s="21">
         <v>3.736826151717171</v>
       </c>
-      <c r="D106" s="22">
+      <c r="D106" s="21">
         <v>3.4255835797720122</v>
       </c>
-      <c r="E106" s="22">
+      <c r="E106" s="21">
         <v>3.3034060876404601</v>
       </c>
-      <c r="F106" s="22">
+      <c r="F106" s="21">
         <v>3.2249590384008258</v>
       </c>
-      <c r="G106" s="22">
+      <c r="G106" s="21">
         <v>3.1718927460709603</v>
       </c>
-      <c r="H106" s="22">
+      <c r="H106" s="21">
         <v>3.3539086044569002</v>
       </c>
-      <c r="I106" s="22">
+      <c r="I106" s="21">
         <v>3.6348648533028092</v>
       </c>
-      <c r="J106" s="22">
+      <c r="J106" s="21">
         <v>4.0048468335889389</v>
       </c>
-      <c r="K106" s="22">
+      <c r="K106" s="21">
         <v>4.5555524243902701</v>
       </c>
-      <c r="L106" s="22">
+      <c r="L106" s="21">
         <v>5.3388594137293346</v>
       </c>
-      <c r="M106" s="22">
+      <c r="M106" s="21">
         <v>5.9600760999227314</v>
       </c>
-      <c r="N106" s="22">
+      <c r="N106" s="21">
         <v>6.6049754631254496</v>
       </c>
-      <c r="O106" s="22">
+      <c r="O106" s="21">
         <v>7.061687480071706</v>
       </c>
-      <c r="P106" s="22">
+      <c r="P106" s="21">
         <v>7.9926936430952136</v>
       </c>
-      <c r="Q106" s="22">
+      <c r="Q106" s="21">
         <v>8.3884935553849989</v>
       </c>
-      <c r="R106" s="22">
+      <c r="R106" s="21">
         <v>9.3713779613130761</v>
       </c>
-      <c r="S106" s="22">
+      <c r="S106" s="21">
         <v>9.5880247885730476</v>
       </c>
-      <c r="T106" s="22">
+      <c r="T106" s="21">
         <v>9.5958208548773953</v>
       </c>
-      <c r="U106" s="22">
+      <c r="U106" s="21">
         <v>9.2949017481759348</v>
       </c>
-      <c r="V106" s="22">
+      <c r="V106" s="21">
         <v>7.8673596359391125</v>
       </c>
-      <c r="W106" s="22">
+      <c r="W106" s="21">
         <v>8.040188996242998</v>
       </c>
-      <c r="X106" s="10"/>
+      <c r="X106" s="21">
+        <v>8.4860456432038216</v>
+      </c>
       <c r="Y106" s="10"/>
       <c r="Z106" s="10"/>
       <c r="AA106" s="10"/>
@@ -28132,77 +28199,79 @@
       <c r="CQ106" s="10"/>
       <c r="CR106" s="10"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="22">
+      <c r="B107" s="21">
         <v>95.651252940360621</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C107" s="21">
         <v>96.263173848282833</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D107" s="21">
         <v>96.57441642022799</v>
       </c>
-      <c r="E107" s="22">
+      <c r="E107" s="21">
         <v>96.696593912359546</v>
       </c>
-      <c r="F107" s="22">
+      <c r="F107" s="21">
         <v>96.775040961599174</v>
       </c>
-      <c r="G107" s="22">
+      <c r="G107" s="21">
         <v>96.828107253929048</v>
       </c>
-      <c r="H107" s="22">
+      <c r="H107" s="21">
         <v>96.64609139554311</v>
       </c>
-      <c r="I107" s="22">
+      <c r="I107" s="21">
         <v>96.365135146697185</v>
       </c>
-      <c r="J107" s="22">
+      <c r="J107" s="21">
         <v>95.995153166411058</v>
       </c>
-      <c r="K107" s="22">
+      <c r="K107" s="21">
         <v>95.444447575609729</v>
       </c>
-      <c r="L107" s="22">
+      <c r="L107" s="21">
         <v>94.661140586270662</v>
       </c>
-      <c r="M107" s="22">
+      <c r="M107" s="21">
         <v>94.03992390007727</v>
       </c>
-      <c r="N107" s="22">
+      <c r="N107" s="21">
         <v>93.395024536874544</v>
       </c>
-      <c r="O107" s="22">
+      <c r="O107" s="21">
         <v>92.938312519928289</v>
       </c>
-      <c r="P107" s="22">
+      <c r="P107" s="21">
         <v>92.007306356904778</v>
       </c>
-      <c r="Q107" s="22">
+      <c r="Q107" s="21">
         <v>91.611506444615003</v>
       </c>
-      <c r="R107" s="22">
+      <c r="R107" s="21">
         <v>90.628622038686927</v>
       </c>
-      <c r="S107" s="22">
+      <c r="S107" s="21">
         <v>90.411975211426949</v>
       </c>
-      <c r="T107" s="22">
+      <c r="T107" s="21">
         <v>90.404179145122598</v>
       </c>
-      <c r="U107" s="22">
+      <c r="U107" s="21">
         <v>90.705098251824069</v>
       </c>
-      <c r="V107" s="22">
+      <c r="V107" s="21">
         <v>92.132640364060876</v>
       </c>
-      <c r="W107" s="22">
+      <c r="W107" s="21">
         <v>91.959811003757011</v>
       </c>
-      <c r="X107" s="10"/>
+      <c r="X107" s="21">
+        <v>91.513954356796191</v>
+      </c>
       <c r="Y107" s="10"/>
       <c r="Z107" s="10"/>
       <c r="AA107" s="10"/>
@@ -28276,31 +28345,31 @@
       <c r="CQ107" s="10"/>
       <c r="CR107" s="10"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="23"/>
-      <c r="S108" s="23"/>
-      <c r="T108" s="23"/>
-      <c r="U108" s="23"/>
-      <c r="V108" s="23"/>
-      <c r="W108" s="23"/>
-      <c r="X108" s="10"/>
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
       <c r="Y108" s="10"/>
       <c r="Z108" s="10"/>
       <c r="AA108" s="10"/>
@@ -28374,77 +28443,79 @@
       <c r="CQ108" s="10"/>
       <c r="CR108" s="10"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="22">
+      <c r="B109" s="21">
         <v>100</v>
       </c>
-      <c r="C109" s="22">
+      <c r="C109" s="21">
         <v>100</v>
       </c>
-      <c r="D109" s="22">
+      <c r="D109" s="21">
         <v>100</v>
       </c>
-      <c r="E109" s="22">
+      <c r="E109" s="21">
         <v>100</v>
       </c>
-      <c r="F109" s="22">
+      <c r="F109" s="21">
         <v>100</v>
       </c>
-      <c r="G109" s="22">
+      <c r="G109" s="21">
         <v>100</v>
       </c>
-      <c r="H109" s="22">
+      <c r="H109" s="21">
         <v>100</v>
       </c>
-      <c r="I109" s="22">
+      <c r="I109" s="21">
         <v>100</v>
       </c>
-      <c r="J109" s="22">
+      <c r="J109" s="21">
         <v>100</v>
       </c>
-      <c r="K109" s="22">
+      <c r="K109" s="21">
         <v>100</v>
       </c>
-      <c r="L109" s="22">
+      <c r="L109" s="21">
         <v>100</v>
       </c>
-      <c r="M109" s="22">
+      <c r="M109" s="21">
         <v>100</v>
       </c>
-      <c r="N109" s="22">
+      <c r="N109" s="21">
         <v>100</v>
       </c>
-      <c r="O109" s="22">
+      <c r="O109" s="21">
         <v>100</v>
       </c>
-      <c r="P109" s="22">
+      <c r="P109" s="21">
         <v>100</v>
       </c>
-      <c r="Q109" s="22">
+      <c r="Q109" s="21">
         <v>100</v>
       </c>
-      <c r="R109" s="22">
+      <c r="R109" s="21">
         <v>100</v>
       </c>
-      <c r="S109" s="22">
+      <c r="S109" s="21">
         <v>100</v>
       </c>
-      <c r="T109" s="22">
+      <c r="T109" s="21">
         <v>100</v>
       </c>
-      <c r="U109" s="22">
+      <c r="U109" s="21">
         <v>100</v>
       </c>
-      <c r="V109" s="22">
+      <c r="V109" s="21">
         <v>100</v>
       </c>
-      <c r="W109" s="22">
+      <c r="W109" s="21">
         <v>100</v>
       </c>
-      <c r="X109" s="10"/>
+      <c r="X109" s="21">
+        <v>100</v>
+      </c>
       <c r="Y109" s="10"/>
       <c r="Z109" s="10"/>
       <c r="AA109" s="10"/>
@@ -28518,38 +28589,39 @@
       <c r="CQ109" s="10"/>
       <c r="CR109" s="10"/>
     </row>
-    <row r="110" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
-      <c r="U110" s="17"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="17"/>
+    <row r="110" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="16"/>
+      <c r="W110" s="16"/>
+      <c r="X110" s="16"/>
     </row>
-    <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+    <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -28646,8 +28718,8 @@
       <c r="CQ112" s="10"/>
       <c r="CR112" s="10"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -28744,39 +28816,39 @@
       <c r="CQ113" s="10"/>
       <c r="CR113" s="10"/>
     </row>
-    <row r="114" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="6" t="s">
         <v>4</v>
@@ -28802,152 +28874,158 @@
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
+      <c r="X122" s="6"/>
     </row>
-    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B123" s="18">
         <v>2000</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C123" s="18">
         <v>2001</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="18">
         <v>2002</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E123" s="18">
         <v>2003</v>
       </c>
-      <c r="F123" s="19">
+      <c r="F123" s="18">
         <v>2004</v>
       </c>
-      <c r="G123" s="19">
+      <c r="G123" s="18">
         <v>2005</v>
       </c>
-      <c r="H123" s="19">
+      <c r="H123" s="18">
         <v>2006</v>
       </c>
-      <c r="I123" s="19">
+      <c r="I123" s="18">
         <v>2007</v>
       </c>
-      <c r="J123" s="19">
+      <c r="J123" s="18">
         <v>2008</v>
       </c>
-      <c r="K123" s="19">
+      <c r="K123" s="18">
         <v>2009</v>
       </c>
-      <c r="L123" s="19">
+      <c r="L123" s="18">
         <v>2010</v>
       </c>
-      <c r="M123" s="19">
+      <c r="M123" s="18">
         <v>2011</v>
       </c>
-      <c r="N123" s="19">
+      <c r="N123" s="18">
         <v>2012</v>
       </c>
-      <c r="O123" s="19">
+      <c r="O123" s="18">
         <v>2013</v>
       </c>
-      <c r="P123" s="19">
+      <c r="P123" s="18">
         <v>2014</v>
       </c>
-      <c r="Q123" s="19">
+      <c r="Q123" s="18">
         <v>2015</v>
       </c>
-      <c r="R123" s="19">
+      <c r="R123" s="18">
         <v>2016</v>
       </c>
-      <c r="S123" s="19">
+      <c r="S123" s="18">
         <v>2017</v>
       </c>
-      <c r="T123" s="19">
+      <c r="T123" s="18">
         <v>2018</v>
       </c>
-      <c r="U123" s="19">
+      <c r="U123" s="18">
         <v>2019</v>
       </c>
-      <c r="V123" s="19">
+      <c r="V123" s="18">
         <v>2020</v>
       </c>
-      <c r="W123" s="19">
+      <c r="W123" s="18">
         <v>2021</v>
       </c>
+      <c r="X123" s="18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="124" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B125" s="22">
+      <c r="B125" s="21">
         <v>8.0405319469660874</v>
       </c>
-      <c r="C125" s="22">
+      <c r="C125" s="21">
         <v>6.8711817585302901</v>
       </c>
-      <c r="D125" s="22">
+      <c r="D125" s="21">
         <v>6.3660172334463416</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E125" s="21">
         <v>6.0949800218423205</v>
       </c>
-      <c r="F125" s="22">
+      <c r="F125" s="21">
         <v>5.8722262401749896</v>
       </c>
-      <c r="G125" s="22">
+      <c r="G125" s="21">
         <v>5.6088186950839169</v>
       </c>
-      <c r="H125" s="22">
+      <c r="H125" s="21">
         <v>5.8342865943793463</v>
       </c>
-      <c r="I125" s="22">
+      <c r="I125" s="21">
         <v>5.8705077901731562</v>
       </c>
-      <c r="J125" s="22">
+      <c r="J125" s="21">
         <v>6.1586498221235502</v>
       </c>
-      <c r="K125" s="22">
+      <c r="K125" s="21">
         <v>6.6888054181106122</v>
       </c>
-      <c r="L125" s="22">
+      <c r="L125" s="21">
         <v>7.526439059983951</v>
       </c>
-      <c r="M125" s="22">
+      <c r="M125" s="21">
         <v>8.0914409094861757</v>
       </c>
-      <c r="N125" s="22">
+      <c r="N125" s="21">
         <v>8.4234459035935743</v>
       </c>
-      <c r="O125" s="22">
+      <c r="O125" s="21">
         <v>8.580176958671105</v>
       </c>
-      <c r="P125" s="22">
+      <c r="P125" s="21">
         <v>9.2712106464383357</v>
       </c>
-      <c r="Q125" s="22">
+      <c r="Q125" s="21">
         <v>9.3346654985013515</v>
       </c>
-      <c r="R125" s="22">
+      <c r="R125" s="21">
         <v>9.9764303761147186</v>
       </c>
-      <c r="S125" s="22">
+      <c r="S125" s="21">
         <v>9.963641835563342</v>
       </c>
-      <c r="T125" s="22">
+      <c r="T125" s="21">
         <v>9.5958208548773953</v>
       </c>
-      <c r="U125" s="22">
+      <c r="U125" s="21">
         <v>9.4691521848618567</v>
       </c>
-      <c r="V125" s="22">
+      <c r="V125" s="21">
         <v>7.8621346589774808</v>
       </c>
-      <c r="W125" s="22">
+      <c r="W125" s="21">
         <v>7.8455980604337103</v>
       </c>
-      <c r="X125" s="10"/>
+      <c r="X125" s="21">
+        <v>8.1843169477080675</v>
+      </c>
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
       <c r="AA125" s="10"/>
@@ -29021,77 +29099,79 @@
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="22">
+      <c r="B126" s="21">
         <v>91.959468053033916</v>
       </c>
-      <c r="C126" s="22">
+      <c r="C126" s="21">
         <v>93.128818241469702</v>
       </c>
-      <c r="D126" s="22">
+      <c r="D126" s="21">
         <v>93.633982766553657</v>
       </c>
-      <c r="E126" s="22">
+      <c r="E126" s="21">
         <v>93.905019978157682</v>
       </c>
-      <c r="F126" s="22">
+      <c r="F126" s="21">
         <v>94.127773759825004</v>
       </c>
-      <c r="G126" s="22">
+      <c r="G126" s="21">
         <v>94.391181304916088</v>
       </c>
-      <c r="H126" s="22">
+      <c r="H126" s="21">
         <v>94.16571340562065</v>
       </c>
-      <c r="I126" s="22">
+      <c r="I126" s="21">
         <v>94.12949220982685</v>
       </c>
-      <c r="J126" s="22">
+      <c r="J126" s="21">
         <v>93.841350177876464</v>
       </c>
-      <c r="K126" s="22">
+      <c r="K126" s="21">
         <v>93.311194581889396</v>
       </c>
-      <c r="L126" s="22">
+      <c r="L126" s="21">
         <v>92.473560940016043</v>
       </c>
-      <c r="M126" s="22">
+      <c r="M126" s="21">
         <v>91.908559090513833</v>
       </c>
-      <c r="N126" s="22">
+      <c r="N126" s="21">
         <v>91.576554096406426</v>
       </c>
-      <c r="O126" s="22">
+      <c r="O126" s="21">
         <v>91.419823041328897</v>
       </c>
-      <c r="P126" s="22">
+      <c r="P126" s="21">
         <v>90.728789353561652</v>
       </c>
-      <c r="Q126" s="22">
+      <c r="Q126" s="21">
         <v>90.665334501498648</v>
       </c>
-      <c r="R126" s="22">
+      <c r="R126" s="21">
         <v>90.02356962388528</v>
       </c>
-      <c r="S126" s="22">
+      <c r="S126" s="21">
         <v>90.036358164436663</v>
       </c>
-      <c r="T126" s="22">
+      <c r="T126" s="21">
         <v>90.404179145122598</v>
       </c>
-      <c r="U126" s="22">
+      <c r="U126" s="21">
         <v>90.530847815138145</v>
       </c>
-      <c r="V126" s="22">
+      <c r="V126" s="21">
         <v>92.137865341022504</v>
       </c>
-      <c r="W126" s="22">
+      <c r="W126" s="21">
         <v>92.154401939566284</v>
       </c>
-      <c r="X126" s="10"/>
+      <c r="X126" s="21">
+        <v>91.815683052291931</v>
+      </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="10"/>
       <c r="AA126" s="10"/>
@@ -29165,31 +29245,31 @@
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="23"/>
-      <c r="O127" s="23"/>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="23"/>
-      <c r="S127" s="23"/>
-      <c r="T127" s="23"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="23"/>
-      <c r="W127" s="23"/>
-      <c r="X127" s="10"/>
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="22"/>
+      <c r="S127" s="22"/>
+      <c r="T127" s="22"/>
+      <c r="U127" s="22"/>
+      <c r="V127" s="22"/>
+      <c r="W127" s="22"/>
+      <c r="X127" s="22"/>
       <c r="Y127" s="10"/>
       <c r="Z127" s="10"/>
       <c r="AA127" s="10"/>
@@ -29263,77 +29343,79 @@
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="22">
+      <c r="B128" s="21">
         <v>100</v>
       </c>
-      <c r="C128" s="22">
+      <c r="C128" s="21">
         <v>100</v>
       </c>
-      <c r="D128" s="22">
+      <c r="D128" s="21">
         <v>100</v>
       </c>
-      <c r="E128" s="22">
+      <c r="E128" s="21">
         <v>100</v>
       </c>
-      <c r="F128" s="22">
+      <c r="F128" s="21">
         <v>100</v>
       </c>
-      <c r="G128" s="22">
+      <c r="G128" s="21">
         <v>100</v>
       </c>
-      <c r="H128" s="22">
+      <c r="H128" s="21">
         <v>100</v>
       </c>
-      <c r="I128" s="22">
+      <c r="I128" s="21">
         <v>100</v>
       </c>
-      <c r="J128" s="22">
+      <c r="J128" s="21">
         <v>100</v>
       </c>
-      <c r="K128" s="22">
+      <c r="K128" s="21">
         <v>100</v>
       </c>
-      <c r="L128" s="22">
+      <c r="L128" s="21">
         <v>100</v>
       </c>
-      <c r="M128" s="22">
+      <c r="M128" s="21">
         <v>100</v>
       </c>
-      <c r="N128" s="22">
+      <c r="N128" s="21">
         <v>100</v>
       </c>
-      <c r="O128" s="22">
+      <c r="O128" s="21">
         <v>100</v>
       </c>
-      <c r="P128" s="22">
+      <c r="P128" s="21">
         <v>100</v>
       </c>
-      <c r="Q128" s="22">
+      <c r="Q128" s="21">
         <v>100</v>
       </c>
-      <c r="R128" s="22">
+      <c r="R128" s="21">
         <v>100</v>
       </c>
-      <c r="S128" s="22">
+      <c r="S128" s="21">
         <v>100</v>
       </c>
-      <c r="T128" s="22">
+      <c r="T128" s="21">
         <v>100</v>
       </c>
-      <c r="U128" s="22">
+      <c r="U128" s="21">
         <v>100</v>
       </c>
-      <c r="V128" s="22">
+      <c r="V128" s="21">
         <v>100</v>
       </c>
-      <c r="W128" s="22">
+      <c r="W128" s="21">
         <v>100</v>
       </c>
-      <c r="X128" s="10"/>
+      <c r="X128" s="21">
+        <v>100</v>
+      </c>
       <c r="Y128" s="10"/>
       <c r="Z128" s="10"/>
       <c r="AA128" s="10"/>
@@ -29407,231 +29489,232 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
-      <c r="R129" s="17"/>
-      <c r="S129" s="17"/>
-      <c r="T129" s="17"/>
-      <c r="U129" s="17"/>
-      <c r="V129" s="17"/>
-      <c r="W129" s="17"/>
+    <row r="129" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+      <c r="Q129" s="16"/>
+      <c r="R129" s="16"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="16"/>
+      <c r="U129" s="16"/>
+      <c r="V129" s="16"/>
+      <c r="W129" s="16"/>
+      <c r="X129" s="16"/>
     </row>
-    <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
+    <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:96" s="25" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" s="24" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="24"/>
-      <c r="O131" s="24"/>
-      <c r="P131" s="24"/>
-      <c r="Q131" s="24"/>
-      <c r="R131" s="24"/>
-      <c r="S131" s="24"/>
-      <c r="T131" s="24"/>
-      <c r="U131" s="24"/>
-      <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-      <c r="Y131" s="24"/>
-      <c r="Z131" s="24"/>
-      <c r="AA131" s="24"/>
-      <c r="AB131" s="24"/>
-      <c r="AC131" s="24"/>
-      <c r="AD131" s="24"/>
-      <c r="AE131" s="24"/>
-      <c r="AF131" s="24"/>
-      <c r="AG131" s="24"/>
-      <c r="AH131" s="24"/>
-      <c r="AI131" s="24"/>
-      <c r="AJ131" s="24"/>
-      <c r="AK131" s="24"/>
-      <c r="AL131" s="24"/>
-      <c r="AM131" s="24"/>
-      <c r="AN131" s="24"/>
-      <c r="AO131" s="24"/>
-      <c r="AP131" s="24"/>
-      <c r="AQ131" s="24"/>
-      <c r="AR131" s="24"/>
-      <c r="AS131" s="24"/>
-      <c r="AT131" s="24"/>
-      <c r="AU131" s="24"/>
-      <c r="AV131" s="24"/>
-      <c r="AW131" s="24"/>
-      <c r="AX131" s="24"/>
-      <c r="AY131" s="24"/>
-      <c r="AZ131" s="24"/>
-      <c r="BA131" s="24"/>
-      <c r="BB131" s="24"/>
-      <c r="BC131" s="24"/>
-      <c r="BD131" s="24"/>
-      <c r="BE131" s="24"/>
-      <c r="BF131" s="24"/>
-      <c r="BG131" s="24"/>
-      <c r="BH131" s="24"/>
-      <c r="BI131" s="24"/>
-      <c r="BJ131" s="24"/>
-      <c r="BK131" s="24"/>
-      <c r="BL131" s="24"/>
-      <c r="BM131" s="24"/>
-      <c r="BN131" s="24"/>
-      <c r="BO131" s="24"/>
-      <c r="BP131" s="24"/>
-      <c r="BQ131" s="24"/>
-      <c r="BR131" s="24"/>
-      <c r="BS131" s="24"/>
-      <c r="BT131" s="24"/>
-      <c r="BU131" s="24"/>
-      <c r="BV131" s="24"/>
-      <c r="BW131" s="24"/>
-      <c r="BX131" s="24"/>
-      <c r="BY131" s="24"/>
-      <c r="BZ131" s="24"/>
-      <c r="CA131" s="24"/>
-      <c r="CB131" s="24"/>
-      <c r="CC131" s="24"/>
-      <c r="CD131" s="24"/>
-      <c r="CE131" s="24"/>
-      <c r="CF131" s="24"/>
-      <c r="CG131" s="24"/>
-      <c r="CH131" s="24"/>
-      <c r="CI131" s="24"/>
-      <c r="CJ131" s="24"/>
-      <c r="CK131" s="24"/>
-      <c r="CL131" s="24"/>
-      <c r="CM131" s="24"/>
-      <c r="CN131" s="24"/>
-      <c r="CO131" s="24"/>
-      <c r="CP131" s="24"/>
-      <c r="CQ131" s="24"/>
-      <c r="CR131" s="24"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
+      <c r="O131" s="23"/>
+      <c r="P131" s="23"/>
+      <c r="Q131" s="23"/>
+      <c r="R131" s="23"/>
+      <c r="S131" s="23"/>
+      <c r="T131" s="23"/>
+      <c r="U131" s="23"/>
+      <c r="V131" s="23"/>
+      <c r="W131" s="23"/>
+      <c r="X131" s="23"/>
+      <c r="Y131" s="23"/>
+      <c r="Z131" s="23"/>
+      <c r="AA131" s="23"/>
+      <c r="AB131" s="23"/>
+      <c r="AC131" s="23"/>
+      <c r="AD131" s="23"/>
+      <c r="AE131" s="23"/>
+      <c r="AF131" s="23"/>
+      <c r="AG131" s="23"/>
+      <c r="AH131" s="23"/>
+      <c r="AI131" s="23"/>
+      <c r="AJ131" s="23"/>
+      <c r="AK131" s="23"/>
+      <c r="AL131" s="23"/>
+      <c r="AM131" s="23"/>
+      <c r="AN131" s="23"/>
+      <c r="AO131" s="23"/>
+      <c r="AP131" s="23"/>
+      <c r="AQ131" s="23"/>
+      <c r="AR131" s="23"/>
+      <c r="AS131" s="23"/>
+      <c r="AT131" s="23"/>
+      <c r="AU131" s="23"/>
+      <c r="AV131" s="23"/>
+      <c r="AW131" s="23"/>
+      <c r="AX131" s="23"/>
+      <c r="AY131" s="23"/>
+      <c r="AZ131" s="23"/>
+      <c r="BA131" s="23"/>
+      <c r="BB131" s="23"/>
+      <c r="BC131" s="23"/>
+      <c r="BD131" s="23"/>
+      <c r="BE131" s="23"/>
+      <c r="BF131" s="23"/>
+      <c r="BG131" s="23"/>
+      <c r="BH131" s="23"/>
+      <c r="BI131" s="23"/>
+      <c r="BJ131" s="23"/>
+      <c r="BK131" s="23"/>
+      <c r="BL131" s="23"/>
+      <c r="BM131" s="23"/>
+      <c r="BN131" s="23"/>
+      <c r="BO131" s="23"/>
+      <c r="BP131" s="23"/>
+      <c r="BQ131" s="23"/>
+      <c r="BR131" s="23"/>
+      <c r="BS131" s="23"/>
+      <c r="BT131" s="23"/>
+      <c r="BU131" s="23"/>
+      <c r="BV131" s="23"/>
+      <c r="BW131" s="23"/>
+      <c r="BX131" s="23"/>
+      <c r="BY131" s="23"/>
+      <c r="BZ131" s="23"/>
+      <c r="CA131" s="23"/>
+      <c r="CB131" s="23"/>
+      <c r="CC131" s="23"/>
+      <c r="CD131" s="23"/>
+      <c r="CE131" s="23"/>
+      <c r="CF131" s="23"/>
+      <c r="CG131" s="23"/>
+      <c r="CH131" s="23"/>
+      <c r="CI131" s="23"/>
+      <c r="CJ131" s="23"/>
+      <c r="CK131" s="23"/>
+      <c r="CL131" s="23"/>
+      <c r="CM131" s="23"/>
+      <c r="CN131" s="23"/>
+      <c r="CO131" s="23"/>
+      <c r="CP131" s="23"/>
+      <c r="CQ131" s="23"/>
+      <c r="CR131" s="23"/>
     </row>
-    <row r="132" spans="1:96" s="25" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" s="24" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="24"/>
-      <c r="N132" s="24"/>
-      <c r="O132" s="24"/>
-      <c r="P132" s="24"/>
-      <c r="Q132" s="24"/>
-      <c r="R132" s="24"/>
-      <c r="S132" s="24"/>
-      <c r="T132" s="24"/>
-      <c r="U132" s="24"/>
-      <c r="V132" s="24"/>
-      <c r="W132" s="24"/>
-      <c r="X132" s="24"/>
-      <c r="Y132" s="24"/>
-      <c r="Z132" s="24"/>
-      <c r="AA132" s="24"/>
-      <c r="AB132" s="24"/>
-      <c r="AC132" s="24"/>
-      <c r="AD132" s="24"/>
-      <c r="AE132" s="24"/>
-      <c r="AF132" s="24"/>
-      <c r="AG132" s="24"/>
-      <c r="AH132" s="24"/>
-      <c r="AI132" s="24"/>
-      <c r="AJ132" s="24"/>
-      <c r="AK132" s="24"/>
-      <c r="AL132" s="24"/>
-      <c r="AM132" s="24"/>
-      <c r="AN132" s="24"/>
-      <c r="AO132" s="24"/>
-      <c r="AP132" s="24"/>
-      <c r="AQ132" s="24"/>
-      <c r="AR132" s="24"/>
-      <c r="AS132" s="24"/>
-      <c r="AT132" s="24"/>
-      <c r="AU132" s="24"/>
-      <c r="AV132" s="24"/>
-      <c r="AW132" s="24"/>
-      <c r="AX132" s="24"/>
-      <c r="AY132" s="24"/>
-      <c r="AZ132" s="24"/>
-      <c r="BA132" s="24"/>
-      <c r="BB132" s="24"/>
-      <c r="BC132" s="24"/>
-      <c r="BD132" s="24"/>
-      <c r="BE132" s="24"/>
-      <c r="BF132" s="24"/>
-      <c r="BG132" s="24"/>
-      <c r="BH132" s="24"/>
-      <c r="BI132" s="24"/>
-      <c r="BJ132" s="24"/>
-      <c r="BK132" s="24"/>
-      <c r="BL132" s="24"/>
-      <c r="BM132" s="24"/>
-      <c r="BN132" s="24"/>
-      <c r="BO132" s="24"/>
-      <c r="BP132" s="24"/>
-      <c r="BQ132" s="24"/>
-      <c r="BR132" s="24"/>
-      <c r="BS132" s="24"/>
-      <c r="BT132" s="24"/>
-      <c r="BU132" s="24"/>
-      <c r="BV132" s="24"/>
-      <c r="BW132" s="24"/>
-      <c r="BX132" s="24"/>
-      <c r="BY132" s="24"/>
-      <c r="BZ132" s="24"/>
-      <c r="CA132" s="24"/>
-      <c r="CB132" s="24"/>
-      <c r="CC132" s="24"/>
-      <c r="CD132" s="24"/>
-      <c r="CE132" s="24"/>
-      <c r="CF132" s="24"/>
-      <c r="CG132" s="24"/>
-      <c r="CH132" s="24"/>
-      <c r="CI132" s="24"/>
-      <c r="CJ132" s="24"/>
-      <c r="CK132" s="24"/>
-      <c r="CL132" s="24"/>
-      <c r="CM132" s="24"/>
-      <c r="CN132" s="24"/>
-      <c r="CO132" s="24"/>
-      <c r="CP132" s="24"/>
-      <c r="CQ132" s="24"/>
-      <c r="CR132" s="24"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+      <c r="O132" s="23"/>
+      <c r="P132" s="23"/>
+      <c r="Q132" s="23"/>
+      <c r="R132" s="23"/>
+      <c r="S132" s="23"/>
+      <c r="T132" s="23"/>
+      <c r="U132" s="23"/>
+      <c r="V132" s="23"/>
+      <c r="W132" s="23"/>
+      <c r="X132" s="23"/>
+      <c r="Y132" s="23"/>
+      <c r="Z132" s="23"/>
+      <c r="AA132" s="23"/>
+      <c r="AB132" s="23"/>
+      <c r="AC132" s="23"/>
+      <c r="AD132" s="23"/>
+      <c r="AE132" s="23"/>
+      <c r="AF132" s="23"/>
+      <c r="AG132" s="23"/>
+      <c r="AH132" s="23"/>
+      <c r="AI132" s="23"/>
+      <c r="AJ132" s="23"/>
+      <c r="AK132" s="23"/>
+      <c r="AL132" s="23"/>
+      <c r="AM132" s="23"/>
+      <c r="AN132" s="23"/>
+      <c r="AO132" s="23"/>
+      <c r="AP132" s="23"/>
+      <c r="AQ132" s="23"/>
+      <c r="AR132" s="23"/>
+      <c r="AS132" s="23"/>
+      <c r="AT132" s="23"/>
+      <c r="AU132" s="23"/>
+      <c r="AV132" s="23"/>
+      <c r="AW132" s="23"/>
+      <c r="AX132" s="23"/>
+      <c r="AY132" s="23"/>
+      <c r="AZ132" s="23"/>
+      <c r="BA132" s="23"/>
+      <c r="BB132" s="23"/>
+      <c r="BC132" s="23"/>
+      <c r="BD132" s="23"/>
+      <c r="BE132" s="23"/>
+      <c r="BF132" s="23"/>
+      <c r="BG132" s="23"/>
+      <c r="BH132" s="23"/>
+      <c r="BI132" s="23"/>
+      <c r="BJ132" s="23"/>
+      <c r="BK132" s="23"/>
+      <c r="BL132" s="23"/>
+      <c r="BM132" s="23"/>
+      <c r="BN132" s="23"/>
+      <c r="BO132" s="23"/>
+      <c r="BP132" s="23"/>
+      <c r="BQ132" s="23"/>
+      <c r="BR132" s="23"/>
+      <c r="BS132" s="23"/>
+      <c r="BT132" s="23"/>
+      <c r="BU132" s="23"/>
+      <c r="BV132" s="23"/>
+      <c r="BW132" s="23"/>
+      <c r="BX132" s="23"/>
+      <c r="BY132" s="23"/>
+      <c r="BZ132" s="23"/>
+      <c r="CA132" s="23"/>
+      <c r="CB132" s="23"/>
+      <c r="CC132" s="23"/>
+      <c r="CD132" s="23"/>
+      <c r="CE132" s="23"/>
+      <c r="CF132" s="23"/>
+      <c r="CG132" s="23"/>
+      <c r="CH132" s="23"/>
+      <c r="CI132" s="23"/>
+      <c r="CJ132" s="23"/>
+      <c r="CK132" s="23"/>
+      <c r="CL132" s="23"/>
+      <c r="CM132" s="23"/>
+      <c r="CN132" s="23"/>
+      <c r="CO132" s="23"/>
+      <c r="CP132" s="23"/>
+      <c r="CQ132" s="23"/>
+      <c r="CR132" s="23"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -29639,9 +29722,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="22" man="1"/>
-    <brk id="76" max="22" man="1"/>
-    <brk id="94" max="22" man="1"/>
+    <brk id="38" max="23" man="1"/>
+    <brk id="76" max="23" man="1"/>
+    <brk id="94" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D2D609-7E70-423E-A341-577B6C48C189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1454F772-180B-4073-8C40-41E87DF15D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="1" r:id="rId1"/>
@@ -602,9 +602,6 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of April 2022</t>
-  </si>
-  <si>
     <t>2021 - 2022</t>
   </si>
   <si>
@@ -612,6 +609,9 @@
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23586,9 +23586,9 @@
   <dimension ref="A1:CR132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="Y3" sqref="Y3"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23610,7 +23610,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23621,7 +23621,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23850,10 +23850,10 @@
         <v>46656.540434222399</v>
       </c>
       <c r="W12" s="9">
-        <v>51472.664339597002</v>
+        <v>51365.438394829478</v>
       </c>
       <c r="X12" s="9">
-        <v>59000.571023291843</v>
+        <v>57526.096372492932</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -23996,10 +23996,10 @@
         <v>546382.83482312958</v>
       </c>
       <c r="W13" s="13">
-        <v>588719.55457029468</v>
+        <v>588668.12233441533</v>
       </c>
       <c r="X13" s="13">
-        <v>636265.20415602683</v>
+        <v>638149.15571641293</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -24240,10 +24240,10 @@
         <v>593039.37525735202</v>
       </c>
       <c r="W15" s="15">
-        <v>640192.21890989167</v>
+        <v>640033.56072924484</v>
       </c>
       <c r="X15" s="15">
-        <v>695265.77517931862</v>
+        <v>695675.25208890589</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -24557,7 +24557,7 @@
     </row>
     <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -24568,7 +24568,7 @@
     </row>
     <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -24797,10 +24797,10 @@
         <v>46008.041903005862</v>
       </c>
       <c r="W31" s="9">
-        <v>50143.031885170749</v>
+        <v>50042.572588802883</v>
       </c>
       <c r="X31" s="9">
-        <v>56408.270966795128</v>
+        <v>55119.92511245903</v>
       </c>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
@@ -24943,10 +24943,10 @@
         <v>539177.07509916835</v>
       </c>
       <c r="W32" s="13">
-        <v>588980.09803972382</v>
+        <v>588928.77712956246</v>
       </c>
       <c r="X32" s="13">
-        <v>632815.65971921862</v>
+        <v>634747.91137654788</v>
       </c>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
@@ -25187,10 +25187,10 @@
         <v>585185.11700217426</v>
       </c>
       <c r="W34" s="15">
-        <v>639123.12992489454</v>
+        <v>638971.34971836535</v>
       </c>
       <c r="X34" s="15">
-        <v>689223.93068601377</v>
+        <v>689867.83648900688</v>
       </c>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
@@ -25504,7 +25504,7 @@
     </row>
     <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25515,7 +25515,7 @@
     </row>
     <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25620,7 +25620,7 @@
         <v>43</v>
       </c>
       <c r="W48" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X48" s="20"/>
     </row>
@@ -25692,10 +25692,10 @@
         <v>-10.815856934308911</v>
       </c>
       <c r="V50" s="21">
-        <v>10.322505399140127</v>
+        <v>10.092685648748017</v>
       </c>
       <c r="W50" s="21">
-        <v>14.625057358656605</v>
+        <v>11.993780585125108</v>
       </c>
       <c r="X50" s="21"/>
       <c r="Y50" s="10"/>
@@ -25831,10 +25831,10 @@
         <v>7.0250065909215493</v>
       </c>
       <c r="V51" s="21">
-        <v>7.748544985105525</v>
+        <v>7.7391317618852327</v>
       </c>
       <c r="W51" s="21">
-        <v>8.0761118289056384</v>
+        <v>8.4055907742678784</v>
       </c>
       <c r="X51" s="21"/>
       <c r="Y51" s="10"/>
@@ -26063,10 +26063,10 @@
         <v>5.3667158552252374</v>
       </c>
       <c r="V53" s="21">
-        <v>7.9510477077643316</v>
+        <v>7.9242943103903514</v>
       </c>
       <c r="W53" s="21">
-        <v>8.6026594267586205</v>
+        <v>8.6935583965727972</v>
       </c>
       <c r="X53" s="21"/>
       <c r="Y53" s="10"/>
@@ -26366,7 +26366,7 @@
     </row>
     <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -26377,7 +26377,7 @@
     </row>
     <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26482,7 +26482,7 @@
         <v>43</v>
       </c>
       <c r="W67" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X67" s="7"/>
     </row>
@@ -26554,10 +26554,10 @@
         <v>-12.77079995105521</v>
       </c>
       <c r="V69" s="21">
-        <v>8.9875374198325346</v>
+        <v>8.7691858182154618</v>
       </c>
       <c r="W69" s="21">
-        <v>12.494735252491296</v>
+        <v>10.146066161259284</v>
       </c>
       <c r="X69" s="21"/>
       <c r="Y69" s="10"/>
@@ -26693,10 +26693,10 @@
         <v>6.9237217201297767</v>
       </c>
       <c r="V70" s="21">
-        <v>9.2368583978455376</v>
+        <v>9.2273400202045792</v>
       </c>
       <c r="W70" s="21">
-        <v>7.442621885763316</v>
+        <v>7.7800807205088205</v>
       </c>
       <c r="X70" s="21"/>
       <c r="Y70" s="10"/>
@@ -26925,10 +26925,10 @@
         <v>5.058817491004703</v>
       </c>
       <c r="V72" s="21">
-        <v>9.2172564468210538</v>
+        <v>9.191319319898426</v>
       </c>
       <c r="W72" s="21">
-        <v>7.8389903940742585</v>
+        <v>7.9653785405362498</v>
       </c>
       <c r="X72" s="21"/>
       <c r="Y72" s="10"/>
@@ -27224,7 +27224,7 @@
     </row>
     <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27235,7 +27235,7 @@
     </row>
     <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -27417,10 +27417,10 @@
         <v>101.40953299552218</v>
       </c>
       <c r="W87" s="21">
-        <v>102.65167941474134</v>
+        <v>102.64348081561776</v>
       </c>
       <c r="X87" s="21">
-        <v>104.5956027583662</v>
+        <v>104.36533840553064</v>
       </c>
       <c r="Y87" s="10"/>
       <c r="Z87" s="10"/>
@@ -27563,10 +27563,10 @@
         <v>101.33643659138065</v>
       </c>
       <c r="W88" s="21">
-        <v>99.955763620825849</v>
+        <v>99.95574086285653</v>
       </c>
       <c r="X88" s="21">
-        <v>100.54511047314139</v>
+        <v>100.53584175369541</v>
       </c>
       <c r="Y88" s="10"/>
       <c r="Z88" s="10"/>
@@ -27807,10 +27807,10 @@
         <v>101.34218352910513</v>
       </c>
       <c r="W90" s="21">
-        <v>100.1672743380642</v>
+        <v>100.16623765859731</v>
       </c>
       <c r="X90" s="21">
-        <v>100.87661559970664</v>
+        <v>100.84181567725423</v>
       </c>
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
@@ -27928,7 +27928,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27939,7 +27939,7 @@
     </row>
     <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28121,10 +28121,10 @@
         <v>7.8673596359391125</v>
       </c>
       <c r="W106" s="21">
-        <v>8.040188996242998</v>
+        <v>8.025428906619279</v>
       </c>
       <c r="X106" s="21">
-        <v>8.4860456432038216</v>
+        <v>8.2691020270965758</v>
       </c>
       <c r="Y106" s="10"/>
       <c r="Z106" s="10"/>
@@ -28267,10 +28267,10 @@
         <v>92.132640364060876</v>
       </c>
       <c r="W107" s="21">
-        <v>91.959811003757011</v>
+        <v>91.974571093380717</v>
       </c>
       <c r="X107" s="21">
-        <v>91.513954356796191</v>
+        <v>91.730897972903421</v>
       </c>
       <c r="Y107" s="10"/>
       <c r="Z107" s="10"/>
@@ -28828,7 +28828,7 @@
     </row>
     <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28839,7 +28839,7 @@
     </row>
     <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -29021,10 +29021,10 @@
         <v>7.8621346589774808</v>
       </c>
       <c r="W125" s="21">
-        <v>7.8455980604337103</v>
+        <v>7.8317396563804893</v>
       </c>
       <c r="X125" s="21">
-        <v>8.1843169477080675</v>
+        <v>7.9899253446841012</v>
       </c>
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
@@ -29167,10 +29167,10 @@
         <v>92.137865341022504</v>
       </c>
       <c r="W126" s="21">
-        <v>92.154401939566284</v>
+        <v>92.168260343619508</v>
       </c>
       <c r="X126" s="21">
-        <v>91.815683052291931</v>
+        <v>92.010074655315904</v>
       </c>
       <c r="Y126" s="10"/>
       <c r="Z126" s="10"/>

--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1454F772-180B-4073-8C40-41E87DF15D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C8A9D8-3F84-4361-A40E-9D51C5F395A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$X$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$Y$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -605,13 +605,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23588,14 +23591,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="24" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="25" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23610,7 +23613,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23621,7 +23624,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23651,6 +23654,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23676,6 +23680,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23704,6 +23709,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -23777,6 +23783,9 @@
       </c>
       <c r="X10" s="7">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23855,7 +23864,9 @@
       <c r="X12" s="9">
         <v>57526.096372492932</v>
       </c>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="9">
+        <v>60008.016099507884</v>
+      </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -24001,7 +24012,9 @@
       <c r="X13" s="13">
         <v>638149.15571641293</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="13">
+        <v>671018.27884366934</v>
+      </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -24099,7 +24112,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="14"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -24245,7 +24258,9 @@
       <c r="X15" s="15">
         <v>695675.25208890589</v>
       </c>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="15">
+        <v>731026.29494317726</v>
+      </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -24343,6 +24358,7 @@
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
     </row>
     <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -24557,7 +24573,7 @@
     </row>
     <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -24568,7 +24584,7 @@
     </row>
     <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -24598,6 +24614,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -24623,6 +24640,7 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -24651,6 +24669,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
     </row>
     <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -24724,6 +24743,9 @@
       </c>
       <c r="X29" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y29" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24802,7 +24824,9 @@
       <c r="X31" s="9">
         <v>55119.92511245903</v>
       </c>
-      <c r="Y31" s="10"/>
+      <c r="Y31" s="9">
+        <v>54511.137172943643</v>
+      </c>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -24948,7 +24972,9 @@
       <c r="X32" s="13">
         <v>634747.91137654788</v>
       </c>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="13">
+        <v>663059.22297077265</v>
+      </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -25192,7 +25218,9 @@
       <c r="X34" s="15">
         <v>689867.83648900688</v>
       </c>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="15">
+        <v>717570.36014371633</v>
+      </c>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
@@ -25290,6 +25318,7 @@
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
     </row>
     <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -25504,7 +25533,7 @@
     </row>
     <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25515,7 +25544,7 @@
     </row>
     <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25551,6 +25580,7 @@
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
     </row>
     <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
@@ -25622,7 +25652,10 @@
       <c r="W48" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="X48" s="20"/>
+      <c r="X48" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="20"/>
     </row>
     <row r="49" spans="1:91" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -25697,8 +25730,10 @@
       <c r="W50" s="21">
         <v>11.993780585125108</v>
       </c>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="10"/>
+      <c r="X50" s="21">
+        <v>4.3144240327798826</v>
+      </c>
+      <c r="Y50" s="21"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
@@ -25836,8 +25871,10 @@
       <c r="W51" s="21">
         <v>8.4055907742678784</v>
       </c>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="10"/>
+      <c r="X51" s="21">
+        <v>5.1506960140621345</v>
+      </c>
+      <c r="Y51" s="21"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
@@ -25930,7 +25967,7 @@
       <c r="V52" s="22"/>
       <c r="W52" s="22"/>
       <c r="X52" s="22"/>
-      <c r="Y52" s="10"/>
+      <c r="Y52" s="22"/>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
@@ -26068,8 +26105,10 @@
       <c r="W53" s="21">
         <v>8.6935583965727972</v>
       </c>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="10"/>
+      <c r="X53" s="21">
+        <v>5.0815438307058685</v>
+      </c>
+      <c r="Y53" s="21"/>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
@@ -26162,6 +26201,7 @@
       <c r="V54" s="16"/>
       <c r="W54" s="16"/>
       <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
     </row>
     <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -26366,7 +26406,7 @@
     </row>
     <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -26377,7 +26417,7 @@
     </row>
     <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26413,6 +26453,7 @@
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
     </row>
     <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
@@ -26484,7 +26525,10 @@
       <c r="W67" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X67" s="7"/>
+      <c r="X67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y67" s="7"/>
     </row>
     <row r="68" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -26559,8 +26603,10 @@
       <c r="W69" s="21">
         <v>10.146066161259284</v>
       </c>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="10"/>
+      <c r="X69" s="21">
+        <v>-1.1044788944711001</v>
+      </c>
+      <c r="Y69" s="21"/>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
@@ -26698,8 +26744,10 @@
       <c r="W70" s="21">
         <v>7.7800807205088205</v>
       </c>
-      <c r="X70" s="21"/>
-      <c r="Y70" s="10"/>
+      <c r="X70" s="21">
+        <v>4.4602449392590131</v>
+      </c>
+      <c r="Y70" s="21"/>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
@@ -26792,7 +26840,7 @@
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
       <c r="X71" s="22"/>
-      <c r="Y71" s="10"/>
+      <c r="Y71" s="22"/>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
@@ -26930,8 +26978,10 @@
       <c r="W72" s="21">
         <v>7.9653785405362498</v>
       </c>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="10"/>
+      <c r="X72" s="21">
+        <v>4.0156276593061477</v>
+      </c>
+      <c r="Y72" s="21"/>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
@@ -27024,6 +27074,7 @@
       <c r="V73" s="16"/>
       <c r="W73" s="16"/>
       <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
     </row>
     <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -27224,7 +27275,7 @@
     </row>
     <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27235,7 +27286,7 @@
     </row>
     <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -27271,6 +27322,7 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
     </row>
     <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
@@ -27344,6 +27396,9 @@
       </c>
       <c r="X85" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y85" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="86" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27422,7 +27477,9 @@
       <c r="X87" s="21">
         <v>104.36533840553064</v>
       </c>
-      <c r="Y87" s="10"/>
+      <c r="Y87" s="21">
+        <v>110.08395570454654</v>
+      </c>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
@@ -27568,7 +27625,9 @@
       <c r="X88" s="21">
         <v>100.53584175369541</v>
       </c>
-      <c r="Y88" s="10"/>
+      <c r="Y88" s="21">
+        <v>101.20035369348108</v>
+      </c>
       <c r="Z88" s="10"/>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
@@ -27666,7 +27725,7 @@
       <c r="V89" s="22"/>
       <c r="W89" s="22"/>
       <c r="X89" s="22"/>
-      <c r="Y89" s="10"/>
+      <c r="Y89" s="22"/>
       <c r="Z89" s="10"/>
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
@@ -27812,7 +27871,9 @@
       <c r="X90" s="21">
         <v>100.84181567725423</v>
       </c>
-      <c r="Y90" s="10"/>
+      <c r="Y90" s="21">
+        <v>101.87520772133982</v>
+      </c>
       <c r="Z90" s="10"/>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -27910,6 +27971,7 @@
       <c r="V91" s="16"/>
       <c r="W91" s="16"/>
       <c r="X91" s="16"/>
+      <c r="Y91" s="16"/>
     </row>
     <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -27928,7 +27990,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27939,7 +28001,7 @@
     </row>
     <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -27975,6 +28037,7 @@
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
     </row>
     <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
@@ -28048,6 +28111,9 @@
       </c>
       <c r="X104" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y104" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="105" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28126,7 +28192,9 @@
       <c r="X106" s="21">
         <v>8.2691020270965758</v>
       </c>
-      <c r="Y106" s="10"/>
+      <c r="Y106" s="21">
+        <v>8.20873565213852</v>
+      </c>
       <c r="Z106" s="10"/>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
@@ -28272,7 +28340,9 @@
       <c r="X107" s="21">
         <v>91.730897972903421</v>
       </c>
-      <c r="Y107" s="10"/>
+      <c r="Y107" s="21">
+        <v>91.791264347861485</v>
+      </c>
       <c r="Z107" s="10"/>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
@@ -28370,7 +28440,7 @@
       <c r="V108" s="22"/>
       <c r="W108" s="22"/>
       <c r="X108" s="22"/>
-      <c r="Y108" s="10"/>
+      <c r="Y108" s="22"/>
       <c r="Z108" s="10"/>
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
@@ -28516,7 +28586,9 @@
       <c r="X109" s="21">
         <v>100</v>
       </c>
-      <c r="Y109" s="10"/>
+      <c r="Y109" s="21">
+        <v>100</v>
+      </c>
       <c r="Z109" s="10"/>
       <c r="AA109" s="10"/>
       <c r="AB109" s="10"/>
@@ -28614,6 +28686,7 @@
       <c r="V110" s="16"/>
       <c r="W110" s="16"/>
       <c r="X110" s="16"/>
+      <c r="Y110" s="16"/>
     </row>
     <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -28828,7 +28901,7 @@
     </row>
     <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28839,7 +28912,7 @@
     </row>
     <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28875,6 +28948,7 @@
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
     </row>
     <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
@@ -28948,6 +29022,9 @@
       </c>
       <c r="X123" s="18">
         <v>2022</v>
+      </c>
+      <c r="Y123" s="18">
+        <v>2023</v>
       </c>
     </row>
     <row r="124" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29026,7 +29103,9 @@
       <c r="X125" s="21">
         <v>7.9899253446841012</v>
       </c>
-      <c r="Y125" s="10"/>
+      <c r="Y125" s="21">
+        <v>7.5966260872349922</v>
+      </c>
       <c r="Z125" s="10"/>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
@@ -29172,7 +29251,9 @@
       <c r="X126" s="21">
         <v>92.010074655315904</v>
       </c>
-      <c r="Y126" s="10"/>
+      <c r="Y126" s="21">
+        <v>92.403373912765005</v>
+      </c>
       <c r="Z126" s="10"/>
       <c r="AA126" s="10"/>
       <c r="AB126" s="10"/>
@@ -29270,7 +29351,7 @@
       <c r="V127" s="22"/>
       <c r="W127" s="22"/>
       <c r="X127" s="22"/>
-      <c r="Y127" s="10"/>
+      <c r="Y127" s="22"/>
       <c r="Z127" s="10"/>
       <c r="AA127" s="10"/>
       <c r="AB127" s="10"/>
@@ -29416,7 +29497,9 @@
       <c r="X128" s="21">
         <v>100</v>
       </c>
-      <c r="Y128" s="10"/>
+      <c r="Y128" s="21">
+        <v>100</v>
+      </c>
       <c r="Z128" s="10"/>
       <c r="AA128" s="10"/>
       <c r="AB128" s="10"/>
@@ -29514,6 +29597,7 @@
       <c r="V129" s="16"/>
       <c r="W129" s="16"/>
       <c r="X129" s="16"/>
+      <c r="Y129" s="16"/>
     </row>
     <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
@@ -29722,9 +29806,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="23" man="1"/>
-    <brk id="76" max="23" man="1"/>
-    <brk id="94" max="23" man="1"/>
+    <brk id="38" max="24" man="1"/>
+    <brk id="76" max="24" man="1"/>
+    <brk id="94" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C8A9D8-3F84-4361-A40E-9D51C5F395A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A088B1C-073E-4CD2-B3C7-B537DDEA35D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="1" r:id="rId1"/>
@@ -608,13 +608,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23589,45 +23589,45 @@
   <dimension ref="A1:CR132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="11"/>
+    <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
+    <col min="2" max="25" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -23656,7 +23656,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23682,7 +23682,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -23711,7 +23711,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -23788,10 +23788,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -23862,10 +23862,10 @@
         <v>51365.438394829478</v>
       </c>
       <c r="X12" s="9">
-        <v>57526.096372492932</v>
+        <v>57439.89224176963</v>
       </c>
       <c r="Y12" s="9">
-        <v>60008.016099507884</v>
+        <v>60213.425792034606</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -23939,7 +23939,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
@@ -24010,10 +24010,10 @@
         <v>588668.12233441533</v>
       </c>
       <c r="X13" s="13">
-        <v>638149.15571641293</v>
+        <v>638581.76057378459</v>
       </c>
       <c r="Y13" s="13">
-        <v>671018.27884366934</v>
+        <v>673203.09124732611</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -24087,7 +24087,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -24185,7 +24185,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -24256,10 +24256,10 @@
         <v>640033.56072924484</v>
       </c>
       <c r="X15" s="15">
-        <v>695675.25208890589</v>
+        <v>696021.65281555417</v>
       </c>
       <c r="Y15" s="15">
-        <v>731026.29494317726</v>
+        <v>733416.51703936071</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -24333,7 +24333,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -24360,12 +24360,12 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
     </row>
-    <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -24463,7 +24463,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -24561,33 +24561,33 @@
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
     </row>
-    <row r="20" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -24616,7 +24616,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -24642,7 +24642,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>4</v>
@@ -24671,7 +24671,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
@@ -24748,10 +24748,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -24822,10 +24822,10 @@
         <v>50042.572588802883</v>
       </c>
       <c r="X31" s="9">
-        <v>55119.92511245903</v>
+        <v>54933.727457368004</v>
       </c>
       <c r="Y31" s="9">
-        <v>54511.137172943643</v>
+        <v>54457.468102423984</v>
       </c>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
@@ -24899,7 +24899,7 @@
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
@@ -24970,10 +24970,10 @@
         <v>588928.77712956246</v>
       </c>
       <c r="X32" s="13">
-        <v>634747.91137654788</v>
+        <v>635138.16894004121</v>
       </c>
       <c r="Y32" s="13">
-        <v>663059.22297077265</v>
+        <v>665157.88503942639</v>
       </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
@@ -25047,7 +25047,7 @@
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -25145,7 +25145,7 @@
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
@@ -25216,10 +25216,10 @@
         <v>638971.34971836535</v>
       </c>
       <c r="X34" s="15">
-        <v>689867.83648900688</v>
+        <v>690071.89639740926</v>
       </c>
       <c r="Y34" s="15">
-        <v>717570.36014371633</v>
+        <v>719615.35314185033</v>
       </c>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
@@ -25293,7 +25293,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -25320,12 +25320,12 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
     </row>
-    <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -25423,7 +25423,7 @@
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -25521,39 +25521,39 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="19" t="s">
         <v>4</v>
@@ -25582,7 +25582,7 @@
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
     </row>
-    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
@@ -25657,10 +25657,10 @@
       </c>
       <c r="Y48" s="20"/>
     </row>
-    <row r="49" spans="1:91" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -25728,10 +25728,10 @@
         <v>10.092685648748017</v>
       </c>
       <c r="W50" s="21">
-        <v>11.993780585125108</v>
+        <v>11.825955422102695</v>
       </c>
       <c r="X50" s="21">
-        <v>4.3144240327798826</v>
+        <v>4.8285841808179697</v>
       </c>
       <c r="Y50" s="21"/>
       <c r="Z50" s="10"/>
@@ -25801,7 +25801,7 @@
       <c r="CL50" s="10"/>
       <c r="CM50" s="10"/>
     </row>
-    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -25869,10 +25869,10 @@
         <v>7.7391317618852327</v>
       </c>
       <c r="W51" s="21">
-        <v>8.4055907742678784</v>
+        <v>8.4790795264116525</v>
       </c>
       <c r="X51" s="21">
-        <v>5.1506960140621345</v>
+        <v>5.4215971722138221</v>
       </c>
       <c r="Y51" s="21"/>
       <c r="Z51" s="10"/>
@@ -25942,7 +25942,7 @@
       <c r="CL51" s="10"/>
       <c r="CM51" s="10"/>
     </row>
-    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -26035,7 +26035,7 @@
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>1</v>
       </c>
@@ -26103,10 +26103,10 @@
         <v>7.9242943103903514</v>
       </c>
       <c r="W53" s="21">
-        <v>8.6935583965727972</v>
+        <v>8.7476806720131037</v>
       </c>
       <c r="X53" s="21">
-        <v>5.0815438307058685</v>
+        <v>5.3726581741439219</v>
       </c>
       <c r="Y53" s="21"/>
       <c r="Z53" s="10"/>
@@ -26176,7 +26176,7 @@
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
     </row>
-    <row r="54" spans="1:91" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -26203,12 +26203,12 @@
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
     </row>
-    <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -26301,7 +26301,7 @@
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
     </row>
-    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -26394,39 +26394,39 @@
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
     </row>
-    <row r="58" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="19" t="s">
         <v>4</v>
@@ -26455,7 +26455,7 @@
       <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
     </row>
-    <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>3</v>
       </c>
@@ -26530,10 +26530,10 @@
       </c>
       <c r="Y67" s="7"/>
     </row>
-    <row r="68" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:92" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
     </row>
-    <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>41</v>
       </c>
@@ -26601,10 +26601,10 @@
         <v>8.7691858182154618</v>
       </c>
       <c r="W69" s="21">
-        <v>10.146066161259284</v>
+        <v>9.7739876579797027</v>
       </c>
       <c r="X69" s="21">
-        <v>-1.1044788944711001</v>
+        <v>-0.86697076092939085</v>
       </c>
       <c r="Y69" s="21"/>
       <c r="Z69" s="10"/>
@@ -26674,7 +26674,7 @@
       <c r="CL69" s="10"/>
       <c r="CM69" s="10"/>
     </row>
-    <row r="70" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -26742,10 +26742,10 @@
         <v>9.2273400202045792</v>
       </c>
       <c r="W70" s="21">
-        <v>7.7800807205088205</v>
+        <v>7.8463463843120707</v>
       </c>
       <c r="X70" s="21">
-        <v>4.4602449392590131</v>
+        <v>4.7264859155739174</v>
       </c>
       <c r="Y70" s="21"/>
       <c r="Z70" s="10"/>
@@ -26815,7 +26815,7 @@
       <c r="CL70" s="10"/>
       <c r="CM70" s="10"/>
     </row>
-    <row r="71" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -26908,7 +26908,7 @@
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
     </row>
-    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>1</v>
       </c>
@@ -26976,10 +26976,10 @@
         <v>9.191319319898426</v>
       </c>
       <c r="W72" s="21">
-        <v>7.9653785405362498</v>
+        <v>7.9973142303746698</v>
       </c>
       <c r="X72" s="21">
-        <v>4.0156276593061477</v>
+        <v>4.2812143051580165</v>
       </c>
       <c r="Y72" s="21"/>
       <c r="Z72" s="10"/>
@@ -27049,7 +27049,7 @@
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
     </row>
-    <row r="73" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:92" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -27076,12 +27076,12 @@
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
     </row>
-    <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -27174,7 +27174,7 @@
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
     </row>
-    <row r="76" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -27268,34 +27268,34 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
     </row>
-    <row r="77" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
         <v>4</v>
@@ -27324,7 +27324,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
     </row>
-    <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>3</v>
       </c>
@@ -27401,10 +27401,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="86" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
@@ -27475,10 +27475,10 @@
         <v>102.64348081561776</v>
       </c>
       <c r="X87" s="21">
-        <v>104.36533840553064</v>
+        <v>104.56216044386677</v>
       </c>
       <c r="Y87" s="21">
-        <v>110.08395570454654</v>
+        <v>110.56963882122611</v>
       </c>
       <c r="Z87" s="10"/>
       <c r="AA87" s="10"/>
@@ -27552,7 +27552,7 @@
       <c r="CQ87" s="10"/>
       <c r="CR87" s="10"/>
     </row>
-    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -27623,10 +27623,10 @@
         <v>99.95574086285653</v>
       </c>
       <c r="X88" s="21">
-        <v>100.53584175369541</v>
+        <v>100.5421799227545</v>
       </c>
       <c r="Y88" s="21">
-        <v>101.20035369348108</v>
+        <v>101.20951827962213</v>
       </c>
       <c r="Z88" s="10"/>
       <c r="AA88" s="10"/>
@@ -27700,7 +27700,7 @@
       <c r="CQ88" s="10"/>
       <c r="CR88" s="10"/>
     </row>
-    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -27798,7 +27798,7 @@
       <c r="CQ89" s="10"/>
       <c r="CR89" s="10"/>
     </row>
-    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>1</v>
       </c>
@@ -27869,10 +27869,10 @@
         <v>100.16623765859731</v>
       </c>
       <c r="X90" s="21">
-        <v>100.84181567725423</v>
+        <v>100.86219370028053</v>
       </c>
       <c r="Y90" s="21">
-        <v>101.87520772133982</v>
+        <v>101.91785289700314</v>
       </c>
       <c r="Z90" s="10"/>
       <c r="AA90" s="10"/>
@@ -27946,7 +27946,7 @@
       <c r="CQ90" s="10"/>
       <c r="CR90" s="10"/>
     </row>
-    <row r="91" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -27973,44 +27973,44 @@
       <c r="X91" s="16"/>
       <c r="Y91" s="16"/>
     </row>
-    <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6" t="s">
         <v>4</v>
@@ -28039,7 +28039,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>3</v>
       </c>
@@ -28116,10 +28116,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="105" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
     </row>
-    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -28190,10 +28190,10 @@
         <v>8.025428906619279</v>
       </c>
       <c r="X106" s="21">
-        <v>8.2691020270965758</v>
+        <v>8.252601339256211</v>
       </c>
       <c r="Y106" s="21">
-        <v>8.20873565213852</v>
+        <v>8.209990420600672</v>
       </c>
       <c r="Z106" s="10"/>
       <c r="AA106" s="10"/>
@@ -28267,7 +28267,7 @@
       <c r="CQ106" s="10"/>
       <c r="CR106" s="10"/>
     </row>
-    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -28338,10 +28338,10 @@
         <v>91.974571093380717</v>
       </c>
       <c r="X107" s="21">
-        <v>91.730897972903421</v>
+        <v>91.747398660743798</v>
       </c>
       <c r="Y107" s="21">
-        <v>91.791264347861485</v>
+        <v>91.790009579399339</v>
       </c>
       <c r="Z107" s="10"/>
       <c r="AA107" s="10"/>
@@ -28415,7 +28415,7 @@
       <c r="CQ107" s="10"/>
       <c r="CR107" s="10"/>
     </row>
-    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
@@ -28513,7 +28513,7 @@
       <c r="CQ108" s="10"/>
       <c r="CR108" s="10"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>1</v>
       </c>
@@ -28661,7 +28661,7 @@
       <c r="CQ109" s="10"/>
       <c r="CR109" s="10"/>
     </row>
-    <row r="110" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -28688,12 +28688,12 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
     </row>
-    <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -28791,7 +28791,7 @@
       <c r="CQ112" s="10"/>
       <c r="CR112" s="10"/>
     </row>
-    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -28889,39 +28889,39 @@
       <c r="CQ113" s="10"/>
       <c r="CR113" s="10"/>
     </row>
-    <row r="114" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="6" t="s">
         <v>4</v>
@@ -28950,7 +28950,7 @@
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
     </row>
-    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>3</v>
       </c>
@@ -29027,10 +29027,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="124" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>41</v>
       </c>
@@ -29101,10 +29101,10 @@
         <v>7.8317396563804893</v>
       </c>
       <c r="X125" s="21">
-        <v>7.9899253446841012</v>
+        <v>7.9605803024518362</v>
       </c>
       <c r="Y125" s="21">
-        <v>7.5966260872349922</v>
+        <v>7.5675800779766504</v>
       </c>
       <c r="Z125" s="10"/>
       <c r="AA125" s="10"/>
@@ -29178,7 +29178,7 @@
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
     </row>
-    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -29249,10 +29249,10 @@
         <v>92.168260343619508</v>
       </c>
       <c r="X126" s="21">
-        <v>92.010074655315904</v>
+        <v>92.039419697548155</v>
       </c>
       <c r="Y126" s="21">
-        <v>92.403373912765005</v>
+        <v>92.432419922023357</v>
       </c>
       <c r="Z126" s="10"/>
       <c r="AA126" s="10"/>
@@ -29326,7 +29326,7 @@
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
     </row>
-    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
@@ -29424,7 +29424,7 @@
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>1</v>
       </c>
@@ -29572,7 +29572,7 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -29599,12 +29599,12 @@
       <c r="X129" s="16"/>
       <c r="Y129" s="16"/>
     </row>
-    <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:96" s="24" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:96" s="24" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -29702,7 +29702,7 @@
       <c r="CQ131" s="23"/>
       <c r="CR131" s="23"/>
     </row>
-    <row r="132" spans="1:96" s="24" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:96" s="24" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>

--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A088B1C-073E-4CD2-B3C7-B537DDEA35D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D882E978-0DA4-4BD0-967D-68D0C17AE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$Y$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$Z$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -608,13 +608,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -707,8 +710,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -757,10 +762,12 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{625C4982-28BC-44CA-A059-D11A01B595A0}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1F4F66C3-F791-49E2-82BB-F86774A2CD19}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23594,40 +23601,40 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.6328125" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="11"/>
+    <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
+    <col min="2" max="26" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -23655,8 +23662,9 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -23681,8 +23689,9 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -23710,8 +23719,9 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -23787,11 +23797,14 @@
       <c r="Y10" s="7">
         <v>2023</v>
       </c>
+      <c r="Z10" s="7">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -23867,7 +23880,9 @@
       <c r="Y12" s="9">
         <v>60213.425792034606</v>
       </c>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="9">
+        <v>62666.440481334539</v>
+      </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -23939,7 +23954,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
@@ -24015,7 +24030,9 @@
       <c r="Y13" s="13">
         <v>673203.09124732611</v>
       </c>
-      <c r="Z13" s="10"/>
+      <c r="Z13" s="13">
+        <v>706763.48164277128</v>
+      </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -24087,7 +24104,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -24113,7 +24130,7 @@
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
-      <c r="Z14" s="10"/>
+      <c r="Z14" s="14"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -24185,7 +24202,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>1</v>
       </c>
@@ -24261,7 +24278,9 @@
       <c r="Y15" s="15">
         <v>733416.51703936071</v>
       </c>
-      <c r="Z15" s="10"/>
+      <c r="Z15" s="15">
+        <v>769429.92212410585</v>
+      </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
@@ -24333,7 +24352,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -24359,13 +24378,14 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -24463,7 +24483,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -24561,33 +24581,33 @@
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
     </row>
-    <row r="20" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -24615,8 +24635,9 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -24641,8 +24662,9 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>4</v>
@@ -24670,8 +24692,9 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
@@ -24747,11 +24770,14 @@
       <c r="Y29" s="18">
         <v>2023</v>
       </c>
+      <c r="Z29" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -24827,7 +24853,9 @@
       <c r="Y31" s="9">
         <v>54457.468102423984</v>
       </c>
-      <c r="Z31" s="10"/>
+      <c r="Z31" s="9">
+        <v>55901.005090567101</v>
+      </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
@@ -24899,7 +24927,7 @@
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>2</v>
       </c>
@@ -24975,7 +25003,9 @@
       <c r="Y32" s="13">
         <v>665157.88503942639</v>
       </c>
-      <c r="Z32" s="10"/>
+      <c r="Z32" s="13">
+        <v>695773.26010312303</v>
+      </c>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
@@ -25047,7 +25077,7 @@
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -25145,7 +25175,7 @@
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
     </row>
-    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
@@ -25221,7 +25251,9 @@
       <c r="Y34" s="15">
         <v>719615.35314185033</v>
       </c>
-      <c r="Z34" s="10"/>
+      <c r="Z34" s="15">
+        <v>751674.26519369008</v>
+      </c>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
@@ -25293,7 +25325,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -25319,13 +25351,14 @@
       <c r="W35" s="16"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
     </row>
-    <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -25423,7 +25456,7 @@
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -25521,39 +25554,39 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="19" t="s">
         <v>4</v>
@@ -25581,8 +25614,9 @@
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>3</v>
       </c>
@@ -25655,12 +25689,15 @@
       <c r="X48" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Y48" s="20"/>
+      <c r="Y48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="20"/>
     </row>
-    <row r="49" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -25733,8 +25770,10 @@
       <c r="X50" s="21">
         <v>4.8285841808179697</v>
       </c>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="10"/>
+      <c r="Y50" s="21">
+        <v>4.0738666784583302</v>
+      </c>
+      <c r="Z50" s="21"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
@@ -25801,7 +25840,7 @@
       <c r="CL50" s="10"/>
       <c r="CM50" s="10"/>
     </row>
-    <row r="51" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -25874,8 +25913,10 @@
       <c r="X51" s="21">
         <v>5.4215971722138221</v>
       </c>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="10"/>
+      <c r="Y51" s="21">
+        <v>4.9851806730809329</v>
+      </c>
+      <c r="Z51" s="21"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
@@ -25942,7 +25983,7 @@
       <c r="CL51" s="10"/>
       <c r="CM51" s="10"/>
     </row>
-    <row r="52" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -25968,7 +26009,7 @@
       <c r="W52" s="22"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
-      <c r="Z52" s="10"/>
+      <c r="Z52" s="22"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
@@ -26035,7 +26076,7 @@
       <c r="CL52" s="10"/>
       <c r="CM52" s="10"/>
     </row>
-    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>1</v>
       </c>
@@ -26108,8 +26149,10 @@
       <c r="X53" s="21">
         <v>5.3726581741439219</v>
       </c>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="10"/>
+      <c r="Y53" s="21">
+        <v>4.9103618814208403</v>
+      </c>
+      <c r="Z53" s="21"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
@@ -26176,7 +26219,7 @@
       <c r="CL53" s="10"/>
       <c r="CM53" s="10"/>
     </row>
-    <row r="54" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -26202,13 +26245,14 @@
       <c r="W54" s="16"/>
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
     </row>
-    <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -26301,7 +26345,7 @@
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -26394,39 +26438,39 @@
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
     </row>
-    <row r="58" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="19" t="s">
         <v>4</v>
@@ -26454,8 +26498,9 @@
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>3</v>
       </c>
@@ -26528,12 +26573,15 @@
       <c r="X67" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Y67" s="7"/>
+      <c r="Y67" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z67" s="7"/>
     </row>
-    <row r="68" spans="1:92" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
     </row>
-    <row r="69" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>41</v>
       </c>
@@ -26606,8 +26654,10 @@
       <c r="X69" s="21">
         <v>-0.86697076092939085</v>
       </c>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="10"/>
+      <c r="Y69" s="21">
+        <v>2.6507603795095775</v>
+      </c>
+      <c r="Z69" s="21"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
@@ -26674,7 +26724,7 @@
       <c r="CL69" s="10"/>
       <c r="CM69" s="10"/>
     </row>
-    <row r="70" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -26747,8 +26797,10 @@
       <c r="X70" s="21">
         <v>4.7264859155739174</v>
       </c>
-      <c r="Y70" s="21"/>
-      <c r="Z70" s="10"/>
+      <c r="Y70" s="21">
+        <v>4.6027230154359415</v>
+      </c>
+      <c r="Z70" s="21"/>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
       <c r="AC70" s="10"/>
@@ -26815,7 +26867,7 @@
       <c r="CL70" s="10"/>
       <c r="CM70" s="10"/>
     </row>
-    <row r="71" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -26841,7 +26893,7 @@
       <c r="W71" s="22"/>
       <c r="X71" s="22"/>
       <c r="Y71" s="22"/>
-      <c r="Z71" s="10"/>
+      <c r="Z71" s="22"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
@@ -26908,7 +26960,7 @@
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
     </row>
-    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>1</v>
       </c>
@@ -26981,8 +27033,10 @@
       <c r="X72" s="21">
         <v>4.2812143051580165</v>
       </c>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="10"/>
+      <c r="Y72" s="21">
+        <v>4.4550066798700243</v>
+      </c>
+      <c r="Z72" s="21"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
@@ -27049,7 +27103,7 @@
       <c r="CL72" s="10"/>
       <c r="CM72" s="10"/>
     </row>
-    <row r="73" spans="1:92" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -27075,13 +27129,14 @@
       <c r="W73" s="16"/>
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
     </row>
-    <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -27174,7 +27229,7 @@
       <c r="CL75" s="10"/>
       <c r="CM75" s="10"/>
     </row>
-    <row r="76" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -27268,34 +27323,34 @@
       <c r="CM76" s="10"/>
       <c r="CN76" s="10"/>
     </row>
-    <row r="77" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
         <v>4</v>
@@ -27323,8 +27378,9 @@
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>3</v>
       </c>
@@ -27400,11 +27456,14 @@
       <c r="Y85" s="18">
         <v>2023</v>
       </c>
+      <c r="Z85" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="86" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
@@ -27480,7 +27539,9 @@
       <c r="Y87" s="21">
         <v>110.56963882122611</v>
       </c>
-      <c r="Z87" s="10"/>
+      <c r="Z87" s="21">
+        <v>112.10252906867511</v>
+      </c>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
@@ -27552,7 +27613,7 @@
       <c r="CQ87" s="10"/>
       <c r="CR87" s="10"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
@@ -27628,7 +27689,9 @@
       <c r="Y88" s="21">
         <v>101.20951827962213</v>
       </c>
-      <c r="Z88" s="10"/>
+      <c r="Z88" s="21">
+        <v>101.57956940426531</v>
+      </c>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
       <c r="AC88" s="10"/>
@@ -27700,7 +27763,7 @@
       <c r="CQ88" s="10"/>
       <c r="CR88" s="10"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -27726,7 +27789,7 @@
       <c r="W89" s="22"/>
       <c r="X89" s="22"/>
       <c r="Y89" s="22"/>
-      <c r="Z89" s="10"/>
+      <c r="Z89" s="22"/>
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
@@ -27798,7 +27861,7 @@
       <c r="CQ89" s="10"/>
       <c r="CR89" s="10"/>
     </row>
-    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>1</v>
       </c>
@@ -27874,7 +27937,9 @@
       <c r="Y90" s="21">
         <v>101.91785289700314</v>
       </c>
-      <c r="Z90" s="10"/>
+      <c r="Z90" s="21">
+        <v>102.36214777498608</v>
+      </c>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
@@ -27946,7 +28011,7 @@
       <c r="CQ90" s="10"/>
       <c r="CR90" s="10"/>
     </row>
-    <row r="91" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -27972,45 +28037,46 @@
       <c r="W91" s="16"/>
       <c r="X91" s="16"/>
       <c r="Y91" s="16"/>
+      <c r="Z91" s="16"/>
     </row>
-    <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="6" t="s">
         <v>4</v>
@@ -28038,8 +28104,9 @@
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
     </row>
-    <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>3</v>
       </c>
@@ -28115,11 +28182,14 @@
       <c r="Y104" s="18">
         <v>2023</v>
       </c>
+      <c r="Z104" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="105" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
     </row>
-    <row r="106" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -28195,7 +28265,9 @@
       <c r="Y106" s="21">
         <v>8.209990420600672</v>
       </c>
-      <c r="Z106" s="10"/>
+      <c r="Z106" s="21">
+        <v>8.1445286541932411</v>
+      </c>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
@@ -28267,7 +28339,7 @@
       <c r="CQ106" s="10"/>
       <c r="CR106" s="10"/>
     </row>
-    <row r="107" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -28343,7 +28415,9 @@
       <c r="Y107" s="21">
         <v>91.790009579399339</v>
       </c>
-      <c r="Z107" s="10"/>
+      <c r="Z107" s="21">
+        <v>91.855471345806748</v>
+      </c>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
@@ -28415,7 +28489,7 @@
       <c r="CQ107" s="10"/>
       <c r="CR107" s="10"/>
     </row>
-    <row r="108" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
@@ -28441,7 +28515,7 @@
       <c r="W108" s="22"/>
       <c r="X108" s="22"/>
       <c r="Y108" s="22"/>
-      <c r="Z108" s="10"/>
+      <c r="Z108" s="22"/>
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
       <c r="AC108" s="10"/>
@@ -28513,7 +28587,7 @@
       <c r="CQ108" s="10"/>
       <c r="CR108" s="10"/>
     </row>
-    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>1</v>
       </c>
@@ -28589,7 +28663,9 @@
       <c r="Y109" s="21">
         <v>100</v>
       </c>
-      <c r="Z109" s="10"/>
+      <c r="Z109" s="21">
+        <v>100</v>
+      </c>
       <c r="AA109" s="10"/>
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
@@ -28661,7 +28737,7 @@
       <c r="CQ109" s="10"/>
       <c r="CR109" s="10"/>
     </row>
-    <row r="110" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -28687,13 +28763,14 @@
       <c r="W110" s="16"/>
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
+      <c r="Z110" s="16"/>
     </row>
-    <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -28791,7 +28868,7 @@
       <c r="CQ112" s="10"/>
       <c r="CR112" s="10"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -28889,39 +28966,39 @@
       <c r="CQ113" s="10"/>
       <c r="CR113" s="10"/>
     </row>
-    <row r="114" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="6" t="s">
         <v>4</v>
@@ -28949,8 +29026,9 @@
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
+      <c r="Z122" s="6"/>
     </row>
-    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>3</v>
       </c>
@@ -29026,11 +29104,14 @@
       <c r="Y123" s="18">
         <v>2023</v>
       </c>
+      <c r="Z123" s="18">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="124" spans="1:96" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>41</v>
       </c>
@@ -29106,7 +29187,9 @@
       <c r="Y125" s="21">
         <v>7.5675800779766504</v>
       </c>
-      <c r="Z125" s="10"/>
+      <c r="Z125" s="21">
+        <v>7.436865631705861</v>
+      </c>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
       <c r="AC125" s="10"/>
@@ -29178,7 +29261,7 @@
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -29254,7 +29337,9 @@
       <c r="Y126" s="21">
         <v>92.432419922023357</v>
       </c>
-      <c r="Z126" s="10"/>
+      <c r="Z126" s="21">
+        <v>92.563134368294143</v>
+      </c>
       <c r="AA126" s="10"/>
       <c r="AB126" s="10"/>
       <c r="AC126" s="10"/>
@@ -29326,7 +29411,7 @@
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
     </row>
-    <row r="127" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
@@ -29352,7 +29437,7 @@
       <c r="W127" s="22"/>
       <c r="X127" s="22"/>
       <c r="Y127" s="22"/>
-      <c r="Z127" s="10"/>
+      <c r="Z127" s="22"/>
       <c r="AA127" s="10"/>
       <c r="AB127" s="10"/>
       <c r="AC127" s="10"/>
@@ -29424,7 +29509,7 @@
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
     </row>
-    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
         <v>1</v>
       </c>
@@ -29500,7 +29585,9 @@
       <c r="Y128" s="21">
         <v>100</v>
       </c>
-      <c r="Z128" s="10"/>
+      <c r="Z128" s="21">
+        <v>100</v>
+      </c>
       <c r="AA128" s="10"/>
       <c r="AB128" s="10"/>
       <c r="AC128" s="10"/>
@@ -29572,7 +29659,7 @@
       <c r="CQ128" s="10"/>
       <c r="CR128" s="10"/>
     </row>
-    <row r="129" spans="1:96" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -29598,13 +29685,14 @@
       <c r="W129" s="16"/>
       <c r="X129" s="16"/>
       <c r="Y129" s="16"/>
+      <c r="Z129" s="16"/>
     </row>
-    <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:96" s="24" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" s="24" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -29702,7 +29790,7 @@
       <c r="CQ131" s="23"/>
       <c r="CR131" s="23"/>
     </row>
-    <row r="132" spans="1:96" s="24" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" s="24" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -29806,9 +29894,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="24" man="1"/>
-    <brk id="76" max="24" man="1"/>
-    <brk id="94" max="24" man="1"/>
+    <brk id="38" max="25" man="1"/>
+    <brk id="76" max="25" man="1"/>
+    <brk id="94" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D882E978-0DA4-4BD0-967D-68D0C17AE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0205B2-98AE-4822-B2C4-EFB429CB608F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23596,9 +23596,9 @@
   <dimension ref="A1:CR132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23878,10 +23878,10 @@
         <v>57439.89224176963</v>
       </c>
       <c r="Y12" s="9">
-        <v>60213.425792034606</v>
+        <v>59954.337014939723</v>
       </c>
       <c r="Z12" s="9">
-        <v>62666.440481334539</v>
+        <v>63006.127753822693</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -24028,10 +24028,10 @@
         <v>638581.76057378459</v>
       </c>
       <c r="Y13" s="13">
-        <v>673203.09124732611</v>
+        <v>672506.45679512247</v>
       </c>
       <c r="Z13" s="13">
-        <v>706763.48164277128</v>
+        <v>705816.61618459702</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -24276,10 +24276,10 @@
         <v>696021.65281555417</v>
       </c>
       <c r="Y15" s="15">
-        <v>733416.51703936071</v>
+        <v>732460.79381006223</v>
       </c>
       <c r="Z15" s="15">
-        <v>769429.92212410585</v>
+        <v>768822.74393841974</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -24851,10 +24851,10 @@
         <v>54933.727457368004</v>
       </c>
       <c r="Y31" s="9">
-        <v>54457.468102423984</v>
+        <v>54228.896276115578</v>
       </c>
       <c r="Z31" s="9">
-        <v>55901.005090567101</v>
+        <v>56216.443451053492</v>
       </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -25001,10 +25001,10 @@
         <v>635138.16894004121</v>
       </c>
       <c r="Y32" s="13">
-        <v>665157.88503942639</v>
+        <v>664473.60849740729</v>
       </c>
       <c r="Z32" s="13">
-        <v>695773.26010312303</v>
+        <v>694857.10201809986</v>
       </c>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -25249,10 +25249,10 @@
         <v>690071.89639740926</v>
       </c>
       <c r="Y34" s="15">
-        <v>719615.35314185033</v>
+        <v>718702.50477352284</v>
       </c>
       <c r="Z34" s="15">
-        <v>751674.26519369008</v>
+        <v>751073.54546915332</v>
       </c>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
@@ -25768,10 +25768,10 @@
         <v>11.825955422102695</v>
       </c>
       <c r="X50" s="21">
-        <v>4.8285841808179697</v>
+        <v>4.377523485919113</v>
       </c>
       <c r="Y50" s="21">
-        <v>4.0738666784583302</v>
+        <v>5.090191787330582</v>
       </c>
       <c r="Z50" s="21"/>
       <c r="AA50" s="10"/>
@@ -25911,10 +25911,10 @@
         <v>8.4790795264116525</v>
       </c>
       <c r="X51" s="21">
-        <v>5.4215971722138221</v>
+        <v>5.3125062937681662</v>
       </c>
       <c r="Y51" s="21">
-        <v>4.9851806730809329</v>
+        <v>4.9531359963763748</v>
       </c>
       <c r="Z51" s="21"/>
       <c r="AA51" s="10"/>
@@ -26147,10 +26147,10 @@
         <v>8.7476806720131037</v>
       </c>
       <c r="X53" s="21">
-        <v>5.3726581741439219</v>
+        <v>5.2353458900458207</v>
       </c>
       <c r="Y53" s="21">
-        <v>4.9103618814208403</v>
+        <v>4.9643544658837726</v>
       </c>
       <c r="Z53" s="21"/>
       <c r="AA53" s="10"/>
@@ -26652,10 +26652,10 @@
         <v>9.7739876579797027</v>
       </c>
       <c r="X69" s="21">
-        <v>-0.86697076092939085</v>
+        <v>-1.2830572653192291</v>
       </c>
       <c r="Y69" s="21">
-        <v>2.6507603795095775</v>
+        <v>3.6651071871682177</v>
       </c>
       <c r="Z69" s="21"/>
       <c r="AA69" s="10"/>
@@ -26795,10 +26795,10 @@
         <v>7.8463463843120707</v>
       </c>
       <c r="X70" s="21">
-        <v>4.7264859155739174</v>
+        <v>4.6187492725122894</v>
       </c>
       <c r="Y70" s="21">
-        <v>4.6027230154359415</v>
+        <v>4.5725658825486875</v>
       </c>
       <c r="Z70" s="21"/>
       <c r="AA70" s="10"/>
@@ -27031,10 +27031,10 @@
         <v>7.9973142303746698</v>
       </c>
       <c r="X72" s="21">
-        <v>4.2812143051580165</v>
+        <v>4.1489312237728484</v>
       </c>
       <c r="Y72" s="21">
-        <v>4.4550066798700243</v>
+        <v>4.5040945983388667</v>
       </c>
       <c r="Z72" s="21"/>
       <c r="AA72" s="10"/>
@@ -27537,10 +27537,10 @@
         <v>104.56216044386677</v>
       </c>
       <c r="Y87" s="21">
-        <v>110.56963882122611</v>
+        <v>110.55791493463576</v>
       </c>
       <c r="Z87" s="21">
-        <v>112.10252906867511</v>
+        <v>112.07775498761467</v>
       </c>
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
@@ -27687,10 +27687,10 @@
         <v>100.5421799227545</v>
       </c>
       <c r="Y88" s="21">
-        <v>101.20951827962213</v>
+        <v>101.20890403997838</v>
       </c>
       <c r="Z88" s="21">
-        <v>101.57956940426531</v>
+        <v>101.57723280580527</v>
       </c>
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
@@ -27935,10 +27935,10 @@
         <v>100.86219370028053</v>
       </c>
       <c r="Y90" s="21">
-        <v>101.91785289700314</v>
+        <v>101.91432323460106</v>
       </c>
       <c r="Z90" s="21">
-        <v>102.36214777498608</v>
+        <v>102.36317715839391</v>
       </c>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -28263,10 +28263,10 @@
         <v>8.252601339256211</v>
       </c>
       <c r="Y106" s="21">
-        <v>8.209990420600672</v>
+        <v>8.1853305353141899</v>
       </c>
       <c r="Z106" s="21">
-        <v>8.1445286541932411</v>
+        <v>8.1951435816094023</v>
       </c>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
@@ -28413,10 +28413,10 @@
         <v>91.747398660743798</v>
       </c>
       <c r="Y107" s="21">
-        <v>91.790009579399339</v>
+        <v>91.814669464685807</v>
       </c>
       <c r="Z107" s="21">
-        <v>91.855471345806748</v>
+        <v>91.804856418390585</v>
       </c>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
@@ -29185,10 +29185,10 @@
         <v>7.9605803024518362</v>
       </c>
       <c r="Y125" s="21">
-        <v>7.5675800779766504</v>
+        <v>7.5453885183277825</v>
       </c>
       <c r="Z125" s="21">
-        <v>7.436865631705861</v>
+        <v>7.4848120786810899</v>
       </c>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
@@ -29335,10 +29335,10 @@
         <v>92.039419697548155</v>
       </c>
       <c r="Y126" s="21">
-        <v>92.432419922023357</v>
+        <v>92.454611481672217</v>
       </c>
       <c r="Z126" s="21">
-        <v>92.563134368294143</v>
+        <v>92.515187921318926</v>
       </c>
       <c r="AA126" s="10"/>
       <c r="AB126" s="10"/>

--- a/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-16IAC_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0205B2-98AE-4822-B2C4-EFB429CB608F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC553BD-3B70-4055-98D8-7A932FC5F6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3930" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAC" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$Z$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">IAC!$A$1:$AA$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,13 +611,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23596,16 +23599,16 @@
   <dimension ref="A1:CR132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" style="1" customWidth="1"/>
-    <col min="2" max="26" width="11.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="11"/>
+    <col min="2" max="27" width="11.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23620,7 +23623,7 @@
     </row>
     <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23631,7 +23634,7 @@
     </row>
     <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23663,6 +23666,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
@@ -23690,6 +23694,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23720,6 +23725,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -23799,6 +23805,9 @@
       </c>
       <c r="Z10" s="7">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23883,7 +23892,9 @@
       <c r="Z12" s="9">
         <v>63006.127753822693</v>
       </c>
-      <c r="AA12" s="10"/>
+      <c r="AA12" s="9">
+        <v>68673.852584199427</v>
+      </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -24033,7 +24044,9 @@
       <c r="Z13" s="13">
         <v>705816.61618459702</v>
       </c>
-      <c r="AA13" s="10"/>
+      <c r="AA13" s="13">
+        <v>731682.56641384808</v>
+      </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -24131,7 +24144,7 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="10"/>
+      <c r="AA14" s="14"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -24281,7 +24294,9 @@
       <c r="Z15" s="15">
         <v>768822.74393841974</v>
       </c>
-      <c r="AA15" s="10"/>
+      <c r="AA15" s="15">
+        <v>800356.41899804748</v>
+      </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -24379,6 +24394,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
     </row>
     <row r="17" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
@@ -24593,7 +24609,7 @@
     </row>
     <row r="22" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -24604,7 +24620,7 @@
     </row>
     <row r="25" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -24636,6 +24652,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
@@ -24663,6 +24680,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -24693,6 +24711,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -24772,6 +24791,9 @@
       </c>
       <c r="Z29" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA29" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="30" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24856,7 +24878,9 @@
       <c r="Z31" s="9">
         <v>56216.443451053492</v>
       </c>
-      <c r="AA31" s="10"/>
+      <c r="AA31" s="9">
+        <v>60911.90364094876</v>
+      </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -25006,7 +25030,9 @@
       <c r="Z32" s="13">
         <v>694857.10201809986</v>
       </c>
-      <c r="AA32" s="10"/>
+      <c r="AA32" s="13">
+        <v>716990.62203968735</v>
+      </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
@@ -25254,7 +25280,9 @@
       <c r="Z34" s="15">
         <v>751073.54546915332</v>
       </c>
-      <c r="AA34" s="10"/>
+      <c r="AA34" s="15">
+        <v>777902.52568063606</v>
+      </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -25352,6 +25380,7 @@
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
     </row>
     <row r="36" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -25566,7 +25595,7 @@
     </row>
     <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25577,7 +25606,7 @@
     </row>
     <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25615,6 +25644,7 @@
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
     </row>
     <row r="48" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
@@ -25692,7 +25722,10 @@
       <c r="Y48" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Z48" s="20"/>
+      <c r="Z48" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA48" s="20"/>
     </row>
     <row r="49" spans="1:91" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -25773,8 +25806,10 @@
       <c r="Y50" s="21">
         <v>5.090191787330582</v>
       </c>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="10"/>
+      <c r="Z50" s="21">
+        <v>8.9955136626101506</v>
+      </c>
+      <c r="AA50" s="21"/>
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
@@ -25916,8 +25951,10 @@
       <c r="Y51" s="21">
         <v>4.9531359963763748</v>
       </c>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="10"/>
+      <c r="Z51" s="21">
+        <v>3.6646842304554355</v>
+      </c>
+      <c r="AA51" s="21"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
@@ -26010,7 +26047,7 @@
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
-      <c r="AA52" s="10"/>
+      <c r="AA52" s="22"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
@@ -26152,8 +26189,10 @@
       <c r="Y53" s="21">
         <v>4.9643544658837726</v>
       </c>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="10"/>
+      <c r="Z53" s="21">
+        <v>4.1015533565111895</v>
+      </c>
+      <c r="AA53" s="21"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
@@ -26246,6 +26285,7 @@
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
     </row>
     <row r="55" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -26450,7 +26490,7 @@
     </row>
     <row r="60" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -26461,7 +26501,7 @@
     </row>
     <row r="63" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -26499,6 +26539,7 @@
       <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
     </row>
     <row r="67" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
@@ -26576,7 +26617,10 @@
       <c r="Y67" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z67" s="7"/>
+      <c r="Z67" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA67" s="7"/>
     </row>
     <row r="68" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -26657,8 +26701,10 @@
       <c r="Y69" s="21">
         <v>3.6651071871682177</v>
       </c>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="10"/>
+      <c r="Z69" s="21">
+        <v>8.3524675373381001</v>
+      </c>
+      <c r="AA69" s="21"/>
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
@@ -26800,8 +26846,10 @@
       <c r="Y70" s="21">
         <v>4.5725658825486875</v>
       </c>
-      <c r="Z70" s="21"/>
-      <c r="AA70" s="10"/>
+      <c r="Z70" s="21">
+        <v>3.1853340718982679</v>
+      </c>
+      <c r="AA70" s="21"/>
       <c r="AB70" s="10"/>
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
@@ -26894,7 +26942,7 @@
       <c r="X71" s="22"/>
       <c r="Y71" s="22"/>
       <c r="Z71" s="22"/>
-      <c r="AA71" s="10"/>
+      <c r="AA71" s="22"/>
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
@@ -27036,8 +27084,10 @@
       <c r="Y72" s="21">
         <v>4.5040945983388667</v>
       </c>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="10"/>
+      <c r="Z72" s="21">
+        <v>3.5720843016410839</v>
+      </c>
+      <c r="AA72" s="21"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
@@ -27130,6 +27180,7 @@
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
       <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
     </row>
     <row r="74" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -27330,7 +27381,7 @@
     </row>
     <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27341,7 +27392,7 @@
     </row>
     <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -27379,6 +27430,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
     </row>
     <row r="85" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
@@ -27458,6 +27510,9 @@
       </c>
       <c r="Z85" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA85" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="86" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27542,7 +27597,9 @@
       <c r="Z87" s="21">
         <v>112.07775498761467</v>
       </c>
-      <c r="AA87" s="10"/>
+      <c r="AA87" s="21">
+        <v>112.74290980791577</v>
+      </c>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
@@ -27692,7 +27749,9 @@
       <c r="Z88" s="21">
         <v>101.57723280580527</v>
       </c>
-      <c r="AA88" s="10"/>
+      <c r="AA88" s="21">
+        <v>102.04911248802185</v>
+      </c>
       <c r="AB88" s="10"/>
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
@@ -27790,7 +27849,7 @@
       <c r="X89" s="22"/>
       <c r="Y89" s="22"/>
       <c r="Z89" s="22"/>
-      <c r="AA89" s="10"/>
+      <c r="AA89" s="22"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
@@ -27940,7 +27999,9 @@
       <c r="Z90" s="21">
         <v>102.36317715839391</v>
       </c>
-      <c r="AA90" s="10"/>
+      <c r="AA90" s="21">
+        <v>102.88646618003523</v>
+      </c>
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
@@ -28038,6 +28099,7 @@
       <c r="X91" s="16"/>
       <c r="Y91" s="16"/>
       <c r="Z91" s="16"/>
+      <c r="AA91" s="16"/>
     </row>
     <row r="92" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -28056,7 +28118,7 @@
     </row>
     <row r="97" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28067,7 +28129,7 @@
     </row>
     <row r="100" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28105,6 +28167,7 @@
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
     </row>
     <row r="104" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
@@ -28184,6 +28247,9 @@
       </c>
       <c r="Z104" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA104" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="105" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28268,7 +28334,9 @@
       <c r="Z106" s="21">
         <v>8.1951435816094023</v>
       </c>
-      <c r="AA106" s="10"/>
+      <c r="AA106" s="21">
+        <v>8.5804087971420344</v>
+      </c>
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
@@ -28418,7 +28486,9 @@
       <c r="Z107" s="21">
         <v>91.804856418390585</v>
       </c>
-      <c r="AA107" s="10"/>
+      <c r="AA107" s="21">
+        <v>91.419591202857958</v>
+      </c>
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
       <c r="AD107" s="10"/>
@@ -28516,7 +28586,7 @@
       <c r="X108" s="22"/>
       <c r="Y108" s="22"/>
       <c r="Z108" s="22"/>
-      <c r="AA108" s="10"/>
+      <c r="AA108" s="22"/>
       <c r="AB108" s="10"/>
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
@@ -28666,7 +28736,9 @@
       <c r="Z109" s="21">
         <v>100</v>
       </c>
-      <c r="AA109" s="10"/>
+      <c r="AA109" s="21">
+        <v>100</v>
+      </c>
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
       <c r="AD109" s="10"/>
@@ -28764,6 +28836,7 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
       <c r="Z110" s="16"/>
+      <c r="AA110" s="16"/>
     </row>
     <row r="111" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -28978,7 +29051,7 @@
     </row>
     <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28989,7 +29062,7 @@
     </row>
     <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -29027,6 +29100,7 @@
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
+      <c r="AA122" s="6"/>
     </row>
     <row r="123" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
@@ -29106,6 +29180,9 @@
       </c>
       <c r="Z123" s="18">
         <v>2024</v>
+      </c>
+      <c r="AA123" s="18">
+        <v>2025</v>
       </c>
     </row>
     <row r="124" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29190,7 +29267,9 @@
       <c r="Z125" s="21">
         <v>7.4848120786810899</v>
       </c>
-      <c r="AA125" s="10"/>
+      <c r="AA125" s="21">
+        <v>7.8302745691245939</v>
+      </c>
       <c r="AB125" s="10"/>
       <c r="AC125" s="10"/>
       <c r="AD125" s="10"/>
@@ -29340,7 +29419,9 @@
       <c r="Z126" s="21">
         <v>92.515187921318926</v>
       </c>
-      <c r="AA126" s="10"/>
+      <c r="AA126" s="21">
+        <v>92.169725430875417</v>
+      </c>
       <c r="AB126" s="10"/>
       <c r="AC126" s="10"/>
       <c r="AD126" s="10"/>
@@ -29438,7 +29519,7 @@
       <c r="X127" s="22"/>
       <c r="Y127" s="22"/>
       <c r="Z127" s="22"/>
-      <c r="AA127" s="10"/>
+      <c r="AA127" s="22"/>
       <c r="AB127" s="10"/>
       <c r="AC127" s="10"/>
       <c r="AD127" s="10"/>
@@ -29588,7 +29669,9 @@
       <c r="Z128" s="21">
         <v>100</v>
       </c>
-      <c r="AA128" s="10"/>
+      <c r="AA128" s="21">
+        <v>100</v>
+      </c>
       <c r="AB128" s="10"/>
       <c r="AC128" s="10"/>
       <c r="AD128" s="10"/>
@@ -29686,6 +29769,7 @@
       <c r="X129" s="16"/>
       <c r="Y129" s="16"/>
       <c r="Z129" s="16"/>
+      <c r="AA129" s="16"/>
     </row>
     <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
@@ -29894,9 +29978,9 @@
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="25" man="1"/>
-    <brk id="76" max="25" man="1"/>
-    <brk id="94" max="25" man="1"/>
+    <brk id="38" max="26" man="1"/>
+    <brk id="76" max="26" man="1"/>
+    <brk id="94" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>